--- a/Verification_MULT.xlsx
+++ b/Verification_MULT.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="27795" windowHeight="14370" tabRatio="812" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="180" windowWidth="27795" windowHeight="14310" tabRatio="812" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="POWER A" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="303">
   <si>
     <t>PULSE</t>
   </si>
@@ -932,11 +932,17 @@
   <si>
     <t>Fail</t>
   </si>
+  <si>
+    <t>Averages</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -946,15 +952,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -977,17 +989,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2792,7 +2853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A59" sqref="A59:BM62"/>
     </sheetView>
   </sheetViews>
@@ -3028,7 +3089,7 @@
       </c>
       <c r="B2">
         <f ca="1">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:S17" ca="1" si="0">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
@@ -3036,11 +3097,11 @@
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
@@ -3048,7 +3109,7 @@
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
@@ -3056,11 +3117,11 @@
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
@@ -3068,7 +3129,7 @@
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
@@ -3080,7 +3141,7 @@
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="0"/>
@@ -3088,7 +3149,7 @@
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <f ca="1">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
@@ -3096,7 +3157,7 @@
       </c>
       <c r="S2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T2">
         <f t="shared" ref="T2:AG3" ca="1" si="1">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
@@ -3112,7 +3173,7 @@
       </c>
       <c r="W2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X2">
         <f t="shared" ca="1" si="1"/>
@@ -3120,7 +3181,7 @@
       </c>
       <c r="Y2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z2">
         <f t="shared" ca="1" si="1"/>
@@ -3128,15 +3189,15 @@
       </c>
       <c r="AA2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <f t="shared" ca="1" si="1"/>
@@ -3144,7 +3205,7 @@
       </c>
       <c r="AE2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF2">
         <f t="shared" ca="1" si="1"/>
@@ -3152,11 +3213,11 @@
       </c>
       <c r="AG2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH2">
         <f t="shared" ref="AH2" ca="1" si="2">IF(B2=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI2">
         <f t="shared" ref="AI2" ca="1" si="3">IF(C2=0,1.1,0)</f>
@@ -3164,11 +3225,11 @@
       </c>
       <c r="AJ2">
         <f t="shared" ref="AJ2" ca="1" si="4">IF(D2=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK2">
         <f t="shared" ref="AK2" ca="1" si="5">IF(E2=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL2">
         <f t="shared" ref="AL2" ca="1" si="6">IF(F2=0,1.1,0)</f>
@@ -3176,7 +3237,7 @@
       </c>
       <c r="AM2">
         <f t="shared" ref="AM2" ca="1" si="7">IF(G2=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN2">
         <f t="shared" ref="AN2" ca="1" si="8">IF(H2=0,1.1,0)</f>
@@ -3184,11 +3245,11 @@
       </c>
       <c r="AO2">
         <f t="shared" ref="AO2" ca="1" si="9">IF(I2=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP2">
         <f t="shared" ref="AP2" ca="1" si="10">IF(J2=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
         <f t="shared" ref="AQ2" ca="1" si="11">IF(K2=0,1.1,0)</f>
@@ -3196,7 +3257,7 @@
       </c>
       <c r="AR2">
         <f t="shared" ref="AR2" ca="1" si="12">IF(L2=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS2">
         <f t="shared" ref="AS2" ca="1" si="13">IF(M2=0,1.1,0)</f>
@@ -3208,7 +3269,7 @@
       </c>
       <c r="AU2">
         <f t="shared" ref="AU2" ca="1" si="15">IF(O2=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV2">
         <f t="shared" ref="AV2" ca="1" si="16">IF(P2=0,1.1,0)</f>
@@ -3216,7 +3277,7 @@
       </c>
       <c r="AW2">
         <f t="shared" ref="AW2" ca="1" si="17">IF(Q2=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX2">
         <f t="shared" ref="AX2" ca="1" si="18">IF(R2=0,1.1,0)</f>
@@ -3224,7 +3285,7 @@
       </c>
       <c r="AY2">
         <f t="shared" ref="AY2" ca="1" si="19">IF(S2=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ2">
         <f t="shared" ref="AZ2" ca="1" si="20">IF(T2=0,1.1,0)</f>
@@ -3240,7 +3301,7 @@
       </c>
       <c r="BC2">
         <f t="shared" ref="BC2" ca="1" si="23">IF(W2=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD2">
         <f t="shared" ref="BD2" ca="1" si="24">IF(X2=0,1.1,0)</f>
@@ -3248,7 +3309,7 @@
       </c>
       <c r="BE2">
         <f t="shared" ref="BE2" ca="1" si="25">IF(Y2=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF2">
         <f t="shared" ref="BF2" ca="1" si="26">IF(Z2=0,1.1,0)</f>
@@ -3256,15 +3317,15 @@
       </c>
       <c r="BG2">
         <f t="shared" ref="BG2" ca="1" si="27">IF(AA2=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH2">
         <f t="shared" ref="BH2" ca="1" si="28">IF(AB2=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI2">
         <f t="shared" ref="BI2" ca="1" si="29">IF(AC2=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ2">
         <f t="shared" ref="BJ2" ca="1" si="30">IF(AD2=0,1.1,0)</f>
@@ -3272,7 +3333,7 @@
       </c>
       <c r="BK2">
         <f t="shared" ref="BK2" ca="1" si="31">IF(AE2=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL2">
         <f t="shared" ref="BL2" ca="1" si="32">IF(AF2=0,1.1,0)</f>
@@ -3280,7 +3341,7 @@
       </c>
       <c r="BM2">
         <f t="shared" ref="BM2" ca="1" si="33">IF(AG2=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
@@ -3293,7 +3354,7 @@
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
@@ -3301,15 +3362,15 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
@@ -3333,7 +3394,7 @@
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
@@ -3341,15 +3402,15 @@
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R3">
         <f ca="1">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
@@ -3357,7 +3418,7 @@
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="1"/>
@@ -3365,15 +3426,15 @@
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <f t="shared" ca="1" si="1"/>
@@ -3381,7 +3442,7 @@
       </c>
       <c r="Y3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z3">
         <f t="shared" ca="1" si="1"/>
@@ -3389,7 +3450,7 @@
       </c>
       <c r="AA3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="1"/>
@@ -3397,7 +3458,7 @@
       </c>
       <c r="AC3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD3">
         <f t="shared" ca="1" si="1"/>
@@ -3405,15 +3466,15 @@
       </c>
       <c r="AE3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF3">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG3">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH3">
         <f t="shared" ref="AH3:AH10" ca="1" si="34">IF(B3=0,1.1,0)</f>
@@ -3421,7 +3482,7 @@
       </c>
       <c r="AI3">
         <f t="shared" ref="AI3:AI10" ca="1" si="35">IF(C3=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
         <f t="shared" ref="AJ3:AJ10" ca="1" si="36">IF(D3=0,1.1,0)</f>
@@ -3429,15 +3490,15 @@
       </c>
       <c r="AK3">
         <f t="shared" ref="AK3:AK10" ca="1" si="37">IF(E3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL3">
         <f t="shared" ref="AL3:AL10" ca="1" si="38">IF(F3=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM3">
         <f t="shared" ref="AM3:AM10" ca="1" si="39">IF(G3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN3">
         <f t="shared" ref="AN3:AN10" ca="1" si="40">IF(H3=0,1.1,0)</f>
@@ -3461,7 +3522,7 @@
       </c>
       <c r="AS3">
         <f t="shared" ref="AS3:AS10" ca="1" si="45">IF(M3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT3">
         <f t="shared" ref="AT3:AT10" ca="1" si="46">IF(N3=0,1.1,0)</f>
@@ -3469,15 +3530,15 @@
       </c>
       <c r="AU3">
         <f t="shared" ref="AU3:AU10" ca="1" si="47">IF(O3=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV3">
         <f t="shared" ref="AV3:AV10" ca="1" si="48">IF(P3=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW3">
         <f t="shared" ref="AW3:AW10" ca="1" si="49">IF(Q3=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX3">
         <f t="shared" ref="AX3:AX10" ca="1" si="50">IF(R3=0,1.1,0)</f>
@@ -3485,7 +3546,7 @@
       </c>
       <c r="AY3">
         <f t="shared" ref="AY3:AY10" ca="1" si="51">IF(S3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ3">
         <f t="shared" ref="AZ3:AZ10" ca="1" si="52">IF(T3=0,1.1,0)</f>
@@ -3493,15 +3554,15 @@
       </c>
       <c r="BA3">
         <f t="shared" ref="BA3:BA10" ca="1" si="53">IF(U3=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB3">
         <f t="shared" ref="BB3:BB10" ca="1" si="54">IF(V3=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC3">
         <f t="shared" ref="BC3:BC10" ca="1" si="55">IF(W3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD3">
         <f t="shared" ref="BD3:BD10" ca="1" si="56">IF(X3=0,1.1,0)</f>
@@ -3509,7 +3570,7 @@
       </c>
       <c r="BE3">
         <f t="shared" ref="BE3:BE10" ca="1" si="57">IF(Y3=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF3">
         <f t="shared" ref="BF3:BF10" ca="1" si="58">IF(Z3=0,1.1,0)</f>
@@ -3517,7 +3578,7 @@
       </c>
       <c r="BG3">
         <f t="shared" ref="BG3:BG10" ca="1" si="59">IF(AA3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH3">
         <f t="shared" ref="BH3:BH10" ca="1" si="60">IF(AB3=0,1.1,0)</f>
@@ -3525,7 +3586,7 @@
       </c>
       <c r="BI3">
         <f t="shared" ref="BI3:BI10" ca="1" si="61">IF(AC3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ3">
         <f t="shared" ref="BJ3:BJ10" ca="1" si="62">IF(AD3=0,1.1,0)</f>
@@ -3533,15 +3594,15 @@
       </c>
       <c r="BK3">
         <f t="shared" ref="BK3:BK10" ca="1" si="63">IF(AE3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BL3">
         <f t="shared" ref="BL3:BL10" ca="1" si="64">IF(AF3=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BM3">
         <f t="shared" ref="BM3:BM10" ca="1" si="65">IF(AG3=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
@@ -3550,11 +3611,11 @@
       </c>
       <c r="B4">
         <f t="shared" ref="B4:Q19" ca="1" si="66">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
@@ -3578,15 +3639,15 @@
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
@@ -3598,7 +3659,7 @@
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
@@ -3606,11 +3667,11 @@
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="0"/>
@@ -3618,11 +3679,11 @@
       </c>
       <c r="S4">
         <f t="shared" ref="S4:AG19" ca="1" si="67">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="67"/>
@@ -3634,7 +3695,7 @@
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="67"/>
@@ -3646,7 +3707,7 @@
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA4">
         <f t="shared" ca="1" si="67"/>
@@ -3654,35 +3715,35 @@
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC4">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD4">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF4">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <f t="shared" ca="1" si="34"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI4">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ4">
         <f t="shared" ca="1" si="36"/>
@@ -3706,15 +3767,15 @@
       </c>
       <c r="AO4">
         <f t="shared" ca="1" si="41"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP4">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ4">
         <f t="shared" ca="1" si="43"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR4">
         <f t="shared" ca="1" si="44"/>
@@ -3726,7 +3787,7 @@
       </c>
       <c r="AT4">
         <f t="shared" ca="1" si="46"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU4">
         <f t="shared" ca="1" si="47"/>
@@ -3734,11 +3795,11 @@
       </c>
       <c r="AV4">
         <f t="shared" ca="1" si="48"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW4">
         <f t="shared" ca="1" si="49"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX4">
         <f t="shared" ca="1" si="50"/>
@@ -3746,11 +3807,11 @@
       </c>
       <c r="AY4">
         <f t="shared" ca="1" si="51"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ4">
         <f t="shared" ca="1" si="52"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA4">
         <f t="shared" ca="1" si="53"/>
@@ -3762,7 +3823,7 @@
       </c>
       <c r="BC4">
         <f t="shared" ca="1" si="55"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD4">
         <f t="shared" ca="1" si="56"/>
@@ -3774,7 +3835,7 @@
       </c>
       <c r="BF4">
         <f t="shared" ca="1" si="58"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG4">
         <f t="shared" ca="1" si="59"/>
@@ -3782,27 +3843,27 @@
       </c>
       <c r="BH4">
         <f t="shared" ca="1" si="60"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BI4">
         <f t="shared" ca="1" si="61"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ4">
         <f t="shared" ca="1" si="62"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BK4">
         <f t="shared" ca="1" si="63"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL4">
         <f t="shared" ca="1" si="64"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BM4">
         <f t="shared" ca="1" si="65"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
@@ -3819,7 +3880,7 @@
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
@@ -3827,7 +3888,7 @@
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
@@ -3835,15 +3896,15 @@
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
@@ -3859,7 +3920,7 @@
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
@@ -3871,19 +3932,19 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="67"/>
@@ -3899,11 +3960,11 @@
       </c>
       <c r="X5">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y5">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z5">
         <f t="shared" ca="1" si="67"/>
@@ -3919,7 +3980,7 @@
       </c>
       <c r="AC5">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD5">
         <f t="shared" ca="1" si="67"/>
@@ -3927,7 +3988,7 @@
       </c>
       <c r="AE5">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF5">
         <f t="shared" ca="1" si="67"/>
@@ -3935,7 +3996,7 @@
       </c>
       <c r="AG5">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH5">
         <f t="shared" ca="1" si="34"/>
@@ -3947,7 +4008,7 @@
       </c>
       <c r="AJ5">
         <f t="shared" ca="1" si="36"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK5">
         <f t="shared" ca="1" si="37"/>
@@ -3955,7 +4016,7 @@
       </c>
       <c r="AL5">
         <f t="shared" ca="1" si="38"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM5">
         <f t="shared" ca="1" si="39"/>
@@ -3963,15 +4024,15 @@
       </c>
       <c r="AN5">
         <f t="shared" ca="1" si="40"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO5">
         <f t="shared" ca="1" si="41"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP5">
         <f t="shared" ca="1" si="42"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ5">
         <f t="shared" ca="1" si="43"/>
@@ -3987,7 +4048,7 @@
       </c>
       <c r="AT5">
         <f t="shared" ca="1" si="46"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU5">
         <f t="shared" ca="1" si="47"/>
@@ -3999,19 +4060,19 @@
       </c>
       <c r="AW5">
         <f t="shared" ca="1" si="49"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX5">
         <f t="shared" ca="1" si="50"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY5">
         <f t="shared" ca="1" si="51"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ5">
         <f t="shared" ca="1" si="52"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA5">
         <f t="shared" ca="1" si="53"/>
@@ -4027,11 +4088,11 @@
       </c>
       <c r="BD5">
         <f t="shared" ca="1" si="56"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE5">
         <f t="shared" ca="1" si="57"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF5">
         <f t="shared" ca="1" si="58"/>
@@ -4047,7 +4108,7 @@
       </c>
       <c r="BI5">
         <f t="shared" ca="1" si="61"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ5">
         <f t="shared" ca="1" si="62"/>
@@ -4055,7 +4116,7 @@
       </c>
       <c r="BK5">
         <f t="shared" ca="1" si="63"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL5">
         <f t="shared" ca="1" si="64"/>
@@ -4063,7 +4124,7 @@
       </c>
       <c r="BM5">
         <f t="shared" ca="1" si="65"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
@@ -4072,7 +4133,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="66"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="0"/>
@@ -4096,11 +4157,11 @@
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
@@ -4108,11 +4169,11 @@
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
@@ -4128,15 +4189,15 @@
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="67"/>
@@ -4148,7 +4209,7 @@
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="67"/>
@@ -4168,15 +4229,15 @@
       </c>
       <c r="Z6">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA6">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC6">
         <f t="shared" ca="1" si="67"/>
@@ -4188,11 +4249,11 @@
       </c>
       <c r="AE6">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG6">
         <f t="shared" ca="1" si="67"/>
@@ -4200,7 +4261,7 @@
       </c>
       <c r="AH6">
         <f t="shared" ca="1" si="34"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI6">
         <f t="shared" ca="1" si="35"/>
@@ -4224,11 +4285,11 @@
       </c>
       <c r="AN6">
         <f t="shared" ca="1" si="40"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO6">
         <f t="shared" ca="1" si="41"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP6">
         <f t="shared" ca="1" si="42"/>
@@ -4236,11 +4297,11 @@
       </c>
       <c r="AQ6">
         <f t="shared" ca="1" si="43"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR6">
         <f t="shared" ca="1" si="44"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS6">
         <f t="shared" ca="1" si="45"/>
@@ -4256,15 +4317,15 @@
       </c>
       <c r="AV6">
         <f t="shared" ca="1" si="48"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AW6">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX6">
         <f t="shared" ca="1" si="50"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY6">
         <f t="shared" ca="1" si="51"/>
@@ -4276,7 +4337,7 @@
       </c>
       <c r="BA6">
         <f t="shared" ca="1" si="53"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB6">
         <f t="shared" ca="1" si="54"/>
@@ -4296,15 +4357,15 @@
       </c>
       <c r="BF6">
         <f t="shared" ca="1" si="58"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG6">
         <f t="shared" ca="1" si="59"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BH6">
         <f t="shared" ca="1" si="60"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BI6">
         <f t="shared" ca="1" si="61"/>
@@ -4316,11 +4377,11 @@
       </c>
       <c r="BK6">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BL6">
         <f t="shared" ca="1" si="64"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM6">
         <f t="shared" ca="1" si="65"/>
@@ -4341,7 +4402,7 @@
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
@@ -4349,7 +4410,7 @@
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
@@ -4357,43 +4418,43 @@
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="0"/>
@@ -4401,7 +4462,7 @@
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="67"/>
@@ -4413,19 +4474,19 @@
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W7">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X7">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y7">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z7">
         <f t="shared" ca="1" si="67"/>
@@ -4433,11 +4494,11 @@
       </c>
       <c r="AA7">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC7">
         <f t="shared" ca="1" si="67"/>
@@ -4453,7 +4514,7 @@
       </c>
       <c r="AF7">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG7">
         <f t="shared" ca="1" si="67"/>
@@ -4469,7 +4530,7 @@
       </c>
       <c r="AJ7">
         <f t="shared" ca="1" si="36"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK7">
         <f t="shared" ca="1" si="37"/>
@@ -4477,7 +4538,7 @@
       </c>
       <c r="AL7">
         <f t="shared" ca="1" si="38"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM7">
         <f t="shared" ca="1" si="39"/>
@@ -4485,43 +4546,43 @@
       </c>
       <c r="AN7">
         <f t="shared" ca="1" si="40"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO7">
         <f t="shared" ca="1" si="41"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP7">
         <f t="shared" ca="1" si="42"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
         <f t="shared" ca="1" si="43"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR7">
         <f t="shared" ca="1" si="44"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS7">
         <f t="shared" ca="1" si="45"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT7">
         <f t="shared" ca="1" si="46"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU7">
         <f t="shared" ca="1" si="47"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV7">
         <f t="shared" ca="1" si="48"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW7">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX7">
         <f t="shared" ca="1" si="50"/>
@@ -4529,7 +4590,7 @@
       </c>
       <c r="AY7">
         <f t="shared" ca="1" si="51"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ7">
         <f t="shared" ca="1" si="52"/>
@@ -4541,19 +4602,19 @@
       </c>
       <c r="BB7">
         <f t="shared" ca="1" si="54"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC7">
         <f t="shared" ca="1" si="55"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD7">
         <f t="shared" ca="1" si="56"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE7">
         <f t="shared" ca="1" si="57"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF7">
         <f t="shared" ca="1" si="58"/>
@@ -4561,11 +4622,11 @@
       </c>
       <c r="BG7">
         <f t="shared" ca="1" si="59"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH7">
         <f t="shared" ca="1" si="60"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BI7">
         <f t="shared" ca="1" si="61"/>
@@ -4581,7 +4642,7 @@
       </c>
       <c r="BL7">
         <f t="shared" ca="1" si="64"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM7">
         <f t="shared" ca="1" si="65"/>
@@ -4594,23 +4655,23 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="66"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
@@ -4622,7 +4683,7 @@
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
@@ -4634,7 +4695,7 @@
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
@@ -4642,11 +4703,11 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
@@ -4666,7 +4727,7 @@
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="67"/>
@@ -4674,7 +4735,7 @@
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W8">
         <f t="shared" ca="1" si="67"/>
@@ -4686,7 +4747,7 @@
       </c>
       <c r="Y8">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z8">
         <f t="shared" ca="1" si="67"/>
@@ -4702,7 +4763,7 @@
       </c>
       <c r="AC8">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD8">
         <f t="shared" ca="1" si="67"/>
@@ -4710,7 +4771,7 @@
       </c>
       <c r="AE8">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF8">
         <f t="shared" ca="1" si="67"/>
@@ -4718,27 +4779,27 @@
       </c>
       <c r="AG8">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH8">
         <f t="shared" ca="1" si="34"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI8">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ8">
         <f t="shared" ca="1" si="36"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK8">
         <f t="shared" ca="1" si="37"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL8">
         <f t="shared" ca="1" si="38"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM8">
         <f t="shared" ca="1" si="39"/>
@@ -4750,7 +4811,7 @@
       </c>
       <c r="AO8">
         <f t="shared" ca="1" si="41"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP8">
         <f t="shared" ca="1" si="42"/>
@@ -4762,7 +4823,7 @@
       </c>
       <c r="AR8">
         <f t="shared" ca="1" si="44"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS8">
         <f t="shared" ca="1" si="45"/>
@@ -4770,11 +4831,11 @@
       </c>
       <c r="AT8">
         <f t="shared" ca="1" si="46"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU8">
         <f t="shared" ca="1" si="47"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV8">
         <f t="shared" ca="1" si="48"/>
@@ -4794,7 +4855,7 @@
       </c>
       <c r="AZ8">
         <f t="shared" ca="1" si="52"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BA8">
         <f t="shared" ca="1" si="53"/>
@@ -4802,7 +4863,7 @@
       </c>
       <c r="BB8">
         <f t="shared" ca="1" si="54"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC8">
         <f t="shared" ca="1" si="55"/>
@@ -4814,7 +4875,7 @@
       </c>
       <c r="BE8">
         <f t="shared" ca="1" si="57"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF8">
         <f t="shared" ca="1" si="58"/>
@@ -4830,7 +4891,7 @@
       </c>
       <c r="BI8">
         <f t="shared" ca="1" si="61"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ8">
         <f t="shared" ca="1" si="62"/>
@@ -4838,7 +4899,7 @@
       </c>
       <c r="BK8">
         <f t="shared" ca="1" si="63"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL8">
         <f t="shared" ca="1" si="64"/>
@@ -4846,7 +4907,7 @@
       </c>
       <c r="BM8">
         <f t="shared" ca="1" si="65"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:65" x14ac:dyDescent="0.25">
@@ -4859,19 +4920,19 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
@@ -4879,7 +4940,7 @@
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
@@ -4887,19 +4948,19 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
@@ -4915,7 +4976,7 @@
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="0"/>
@@ -4923,15 +4984,15 @@
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="67"/>
@@ -4939,7 +5000,7 @@
       </c>
       <c r="W9">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="67"/>
@@ -4947,11 +5008,11 @@
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA9">
         <f t="shared" ca="1" si="67"/>
@@ -4959,11 +5020,11 @@
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD9">
         <f t="shared" ca="1" si="67"/>
@@ -4971,15 +5032,15 @@
       </c>
       <c r="AE9">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG9">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="34"/>
@@ -4987,19 +5048,19 @@
       </c>
       <c r="AI9">
         <f t="shared" ca="1" si="35"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ9">
         <f t="shared" ca="1" si="36"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK9">
         <f t="shared" ca="1" si="37"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL9">
         <f t="shared" ca="1" si="38"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM9">
         <f t="shared" ca="1" si="39"/>
@@ -5007,7 +5068,7 @@
       </c>
       <c r="AN9">
         <f t="shared" ca="1" si="40"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO9">
         <f t="shared" ca="1" si="41"/>
@@ -5015,19 +5076,19 @@
       </c>
       <c r="AP9">
         <f t="shared" ca="1" si="42"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ9">
         <f t="shared" ca="1" si="43"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR9">
         <f t="shared" ca="1" si="44"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS9">
         <f t="shared" ca="1" si="45"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT9">
         <f t="shared" ca="1" si="46"/>
@@ -5043,7 +5104,7 @@
       </c>
       <c r="AW9">
         <f t="shared" ca="1" si="49"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX9">
         <f t="shared" ca="1" si="50"/>
@@ -5051,15 +5112,15 @@
       </c>
       <c r="AY9">
         <f t="shared" ca="1" si="51"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ9">
         <f t="shared" ca="1" si="52"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA9">
         <f t="shared" ca="1" si="53"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB9">
         <f t="shared" ca="1" si="54"/>
@@ -5067,7 +5128,7 @@
       </c>
       <c r="BC9">
         <f t="shared" ca="1" si="55"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD9">
         <f t="shared" ca="1" si="56"/>
@@ -5075,11 +5136,11 @@
       </c>
       <c r="BE9">
         <f t="shared" ca="1" si="57"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF9">
         <f t="shared" ca="1" si="58"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG9">
         <f t="shared" ca="1" si="59"/>
@@ -5087,11 +5148,11 @@
       </c>
       <c r="BH9">
         <f t="shared" ca="1" si="60"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI9">
         <f t="shared" ca="1" si="61"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ9">
         <f t="shared" ca="1" si="62"/>
@@ -5099,15 +5160,15 @@
       </c>
       <c r="BK9">
         <f t="shared" ca="1" si="63"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BL9">
         <f t="shared" ca="1" si="64"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM9">
         <f t="shared" ca="1" si="65"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:65" x14ac:dyDescent="0.25">
@@ -5152,7 +5213,7 @@
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
@@ -5164,7 +5225,7 @@
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
@@ -5172,11 +5233,11 @@
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R10">
         <f t="shared" ref="R10:R13" ca="1" si="68">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
@@ -5192,23 +5253,23 @@
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W10">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y10">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <f t="shared" ca="1" si="67"/>
@@ -5220,7 +5281,7 @@
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC10">
         <f t="shared" ca="1" si="67"/>
@@ -5280,7 +5341,7 @@
       </c>
       <c r="AQ10">
         <f t="shared" ca="1" si="43"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR10">
         <f t="shared" ca="1" si="44"/>
@@ -5292,7 +5353,7 @@
       </c>
       <c r="AT10">
         <f t="shared" ca="1" si="46"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <f t="shared" ca="1" si="47"/>
@@ -5300,11 +5361,11 @@
       </c>
       <c r="AV10">
         <f t="shared" ca="1" si="48"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AW10">
         <f t="shared" ca="1" si="49"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX10">
         <f t="shared" ca="1" si="50"/>
@@ -5320,23 +5381,23 @@
       </c>
       <c r="BA10">
         <f t="shared" ca="1" si="53"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB10">
         <f t="shared" ca="1" si="54"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC10">
         <f t="shared" ca="1" si="55"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD10">
         <f t="shared" ca="1" si="56"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE10">
         <f t="shared" ca="1" si="57"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF10">
         <f t="shared" ca="1" si="58"/>
@@ -5348,7 +5409,7 @@
       </c>
       <c r="BH10">
         <f t="shared" ca="1" si="60"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI10">
         <f t="shared" ca="1" si="61"/>
@@ -5377,15 +5438,15 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="66"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
@@ -5397,11 +5458,11 @@
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
@@ -5413,7 +5474,7 @@
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
@@ -5421,7 +5482,7 @@
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
@@ -5441,7 +5502,7 @@
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="68"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="67"/>
@@ -5461,7 +5522,7 @@
       </c>
       <c r="W11">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <f t="shared" ca="1" si="67"/>
@@ -5469,11 +5530,11 @@
       </c>
       <c r="Y11">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z11">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA11">
         <f t="shared" ca="1" si="67"/>
@@ -5481,11 +5542,11 @@
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC11">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD11">
         <f t="shared" ca="1" si="67"/>
@@ -5493,27 +5554,27 @@
       </c>
       <c r="AE11">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF11">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG11">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH11">
         <f t="shared" ref="AH11:AH20" ca="1" si="69">IF(B11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI11">
         <f t="shared" ref="AI11:AI20" ca="1" si="70">IF(C11=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ11">
         <f t="shared" ref="AJ11:AJ20" ca="1" si="71">IF(D11=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK11">
         <f t="shared" ref="AK11:AK20" ca="1" si="72">IF(E11=0,1.1,0)</f>
@@ -5525,11 +5586,11 @@
       </c>
       <c r="AM11">
         <f t="shared" ref="AM11:AM20" ca="1" si="74">IF(G11=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN11">
         <f t="shared" ref="AN11:AN20" ca="1" si="75">IF(H11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO11">
         <f t="shared" ref="AO11:AO20" ca="1" si="76">IF(I11=0,1.1,0)</f>
@@ -5541,7 +5602,7 @@
       </c>
       <c r="AQ11">
         <f t="shared" ref="AQ11:AQ20" ca="1" si="78">IF(K11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR11">
         <f t="shared" ref="AR11:AR20" ca="1" si="79">IF(L11=0,1.1,0)</f>
@@ -5549,7 +5610,7 @@
       </c>
       <c r="AS11">
         <f t="shared" ref="AS11:AS20" ca="1" si="80">IF(M11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT11">
         <f t="shared" ref="AT11:AT20" ca="1" si="81">IF(N11=0,1.1,0)</f>
@@ -5569,7 +5630,7 @@
       </c>
       <c r="AX11">
         <f t="shared" ref="AX11:AX20" ca="1" si="85">IF(R11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY11">
         <f t="shared" ref="AY11:AY20" ca="1" si="86">IF(S11=0,1.1,0)</f>
@@ -5589,7 +5650,7 @@
       </c>
       <c r="BC11">
         <f t="shared" ref="BC11:BC20" ca="1" si="90">IF(W11=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD11">
         <f t="shared" ref="BD11:BD20" ca="1" si="91">IF(X11=0,1.1,0)</f>
@@ -5597,11 +5658,11 @@
       </c>
       <c r="BE11">
         <f t="shared" ref="BE11:BE20" ca="1" si="92">IF(Y11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF11">
         <f t="shared" ref="BF11:BF20" ca="1" si="93">IF(Z11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG11">
         <f t="shared" ref="BG11:BG20" ca="1" si="94">IF(AA11=0,1.1,0)</f>
@@ -5609,11 +5670,11 @@
       </c>
       <c r="BH11">
         <f t="shared" ref="BH11:BH20" ca="1" si="95">IF(AB11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BI11">
         <f t="shared" ref="BI11:BI20" ca="1" si="96">IF(AC11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ11">
         <f t="shared" ref="BJ11:BJ20" ca="1" si="97">IF(AD11=0,1.1,0)</f>
@@ -5621,15 +5682,15 @@
       </c>
       <c r="BK11">
         <f t="shared" ref="BK11:BK20" ca="1" si="98">IF(AE11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL11">
         <f t="shared" ref="BL11:BL20" ca="1" si="99">IF(AF11=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BM11">
         <f t="shared" ref="BM11:BM20" ca="1" si="100">IF(AG11=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
@@ -5642,7 +5703,7 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
@@ -5650,7 +5711,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
@@ -5658,7 +5719,7 @@
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
@@ -5666,19 +5727,19 @@
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
@@ -5686,7 +5747,7 @@
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
@@ -5694,7 +5755,7 @@
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="0"/>
@@ -5702,7 +5763,7 @@
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="68"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="0"/>
@@ -5714,11 +5775,11 @@
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W12">
         <f t="shared" ca="1" si="67"/>
@@ -5726,7 +5787,7 @@
       </c>
       <c r="X12">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y12">
         <f t="shared" ca="1" si="67"/>
@@ -5734,11 +5795,11 @@
       </c>
       <c r="Z12">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="67"/>
@@ -5754,7 +5815,7 @@
       </c>
       <c r="AE12">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF12">
         <f t="shared" ca="1" si="67"/>
@@ -5762,7 +5823,7 @@
       </c>
       <c r="AG12">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="69"/>
@@ -5770,7 +5831,7 @@
       </c>
       <c r="AI12">
         <f t="shared" ca="1" si="70"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
         <f t="shared" ca="1" si="71"/>
@@ -5778,7 +5839,7 @@
       </c>
       <c r="AK12">
         <f t="shared" ca="1" si="72"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL12">
         <f t="shared" ca="1" si="73"/>
@@ -5786,7 +5847,7 @@
       </c>
       <c r="AM12">
         <f t="shared" ca="1" si="74"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN12">
         <f t="shared" ca="1" si="75"/>
@@ -5794,19 +5855,19 @@
       </c>
       <c r="AO12">
         <f t="shared" ca="1" si="76"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP12">
         <f t="shared" ca="1" si="77"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ12">
         <f t="shared" ca="1" si="78"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR12">
         <f t="shared" ca="1" si="79"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS12">
         <f t="shared" ca="1" si="80"/>
@@ -5814,7 +5875,7 @@
       </c>
       <c r="AT12">
         <f t="shared" ca="1" si="81"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU12">
         <f t="shared" ca="1" si="82"/>
@@ -5822,7 +5883,7 @@
       </c>
       <c r="AV12">
         <f t="shared" ca="1" si="83"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AW12">
         <f t="shared" ca="1" si="84"/>
@@ -5830,7 +5891,7 @@
       </c>
       <c r="AX12">
         <f t="shared" ca="1" si="85"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY12">
         <f t="shared" ca="1" si="86"/>
@@ -5842,11 +5903,11 @@
       </c>
       <c r="BA12">
         <f t="shared" ca="1" si="88"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB12">
         <f t="shared" ca="1" si="89"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC12">
         <f t="shared" ca="1" si="90"/>
@@ -5854,7 +5915,7 @@
       </c>
       <c r="BD12">
         <f t="shared" ca="1" si="91"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BE12">
         <f t="shared" ca="1" si="92"/>
@@ -5862,11 +5923,11 @@
       </c>
       <c r="BF12">
         <f t="shared" ca="1" si="93"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG12">
         <f t="shared" ca="1" si="94"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BH12">
         <f t="shared" ca="1" si="95"/>
@@ -5882,7 +5943,7 @@
       </c>
       <c r="BK12">
         <f t="shared" ca="1" si="98"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL12">
         <f t="shared" ca="1" si="99"/>
@@ -5890,7 +5951,7 @@
       </c>
       <c r="BM12">
         <f t="shared" ca="1" si="100"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
@@ -5899,15 +5960,15 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="66"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
@@ -5915,7 +5976,7 @@
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
@@ -5927,11 +5988,11 @@
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
@@ -5939,7 +6000,7 @@
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
@@ -5951,7 +6012,7 @@
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="0"/>
@@ -5959,7 +6020,7 @@
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="68"/>
@@ -5967,7 +6028,7 @@
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="67"/>
@@ -5983,15 +6044,15 @@
       </c>
       <c r="W13">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X13">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y13">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z13">
         <f t="shared" ca="1" si="67"/>
@@ -5999,11 +6060,11 @@
       </c>
       <c r="AA13">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC13">
         <f t="shared" ca="1" si="67"/>
@@ -6019,23 +6080,23 @@
       </c>
       <c r="AF13">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG13">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH13">
         <f t="shared" ca="1" si="69"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI13">
         <f t="shared" ca="1" si="70"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ13">
         <f t="shared" ca="1" si="71"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK13">
         <f t="shared" ca="1" si="72"/>
@@ -6043,7 +6104,7 @@
       </c>
       <c r="AL13">
         <f t="shared" ca="1" si="73"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM13">
         <f t="shared" ca="1" si="74"/>
@@ -6055,11 +6116,11 @@
       </c>
       <c r="AO13">
         <f t="shared" ca="1" si="76"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP13">
         <f t="shared" ca="1" si="77"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ13">
         <f t="shared" ca="1" si="78"/>
@@ -6067,7 +6128,7 @@
       </c>
       <c r="AR13">
         <f t="shared" ca="1" si="79"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS13">
         <f t="shared" ca="1" si="80"/>
@@ -6079,7 +6140,7 @@
       </c>
       <c r="AU13">
         <f t="shared" ca="1" si="82"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV13">
         <f t="shared" ca="1" si="83"/>
@@ -6087,7 +6148,7 @@
       </c>
       <c r="AW13">
         <f t="shared" ca="1" si="84"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX13">
         <f t="shared" ca="1" si="85"/>
@@ -6095,7 +6156,7 @@
       </c>
       <c r="AY13">
         <f t="shared" ca="1" si="86"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ13">
         <f t="shared" ca="1" si="87"/>
@@ -6111,15 +6172,15 @@
       </c>
       <c r="BC13">
         <f t="shared" ca="1" si="90"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD13">
         <f t="shared" ca="1" si="91"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BE13">
         <f t="shared" ca="1" si="92"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF13">
         <f t="shared" ca="1" si="93"/>
@@ -6127,11 +6188,11 @@
       </c>
       <c r="BG13">
         <f t="shared" ca="1" si="94"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH13">
         <f t="shared" ca="1" si="95"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BI13">
         <f t="shared" ca="1" si="96"/>
@@ -6147,11 +6208,11 @@
       </c>
       <c r="BL13">
         <f t="shared" ca="1" si="99"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM13">
         <f t="shared" ca="1" si="100"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:65" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6164,7 +6225,7 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
@@ -6188,7 +6249,7 @@
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
@@ -6196,11 +6257,11 @@
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="0"/>
@@ -6208,11 +6269,11 @@
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="0"/>
@@ -6220,11 +6281,11 @@
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="67"/>
@@ -6232,19 +6293,19 @@
       </c>
       <c r="T14">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U14">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W14">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X14">
         <f t="shared" ca="1" si="67"/>
@@ -6276,15 +6337,15 @@
       </c>
       <c r="AE14">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF14">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG14">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="69"/>
@@ -6292,7 +6353,7 @@
       </c>
       <c r="AI14">
         <f t="shared" ca="1" si="70"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ14">
         <f t="shared" ca="1" si="71"/>
@@ -6316,7 +6377,7 @@
       </c>
       <c r="AO14">
         <f t="shared" ca="1" si="76"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP14">
         <f t="shared" ca="1" si="77"/>
@@ -6324,11 +6385,11 @@
       </c>
       <c r="AQ14">
         <f t="shared" ca="1" si="78"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR14">
         <f t="shared" ca="1" si="79"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS14">
         <f t="shared" ca="1" si="80"/>
@@ -6336,11 +6397,11 @@
       </c>
       <c r="AT14">
         <f t="shared" ca="1" si="81"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU14">
         <f t="shared" ca="1" si="82"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV14">
         <f t="shared" ca="1" si="83"/>
@@ -6348,11 +6409,11 @@
       </c>
       <c r="AW14">
         <f t="shared" ca="1" si="84"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX14">
         <f t="shared" ca="1" si="85"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY14">
         <f t="shared" ca="1" si="86"/>
@@ -6360,19 +6421,19 @@
       </c>
       <c r="AZ14">
         <f t="shared" ca="1" si="87"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BA14">
         <f t="shared" ca="1" si="88"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB14">
         <f t="shared" ca="1" si="89"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC14">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD14">
         <f t="shared" ca="1" si="91"/>
@@ -6404,15 +6465,15 @@
       </c>
       <c r="BK14">
         <f t="shared" ca="1" si="98"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BL14">
         <f t="shared" ca="1" si="99"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM14">
         <f t="shared" ca="1" si="100"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:65" x14ac:dyDescent="0.25">
@@ -6433,15 +6494,15 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="0"/>
@@ -6453,7 +6514,7 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="0"/>
@@ -6465,11 +6526,11 @@
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="0"/>
@@ -6481,15 +6542,15 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T15">
         <f t="shared" ca="1" si="67"/>
@@ -6505,15 +6566,15 @@
       </c>
       <c r="W15">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X15">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y15">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z15">
         <f t="shared" ca="1" si="67"/>
@@ -6521,19 +6582,19 @@
       </c>
       <c r="AA15">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC15">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD15">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE15">
         <f t="shared" ca="1" si="67"/>
@@ -6541,7 +6602,7 @@
       </c>
       <c r="AF15">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG15">
         <f t="shared" ca="1" si="67"/>
@@ -6561,15 +6622,15 @@
       </c>
       <c r="AK15">
         <f t="shared" ca="1" si="72"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL15">
         <f t="shared" ca="1" si="73"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM15">
         <f t="shared" ca="1" si="74"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN15">
         <f t="shared" ca="1" si="75"/>
@@ -6581,7 +6642,7 @@
       </c>
       <c r="AP15">
         <f t="shared" ca="1" si="77"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ15">
         <f t="shared" ca="1" si="78"/>
@@ -6593,11 +6654,11 @@
       </c>
       <c r="AS15">
         <f t="shared" ca="1" si="80"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT15">
         <f t="shared" ca="1" si="81"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU15">
         <f t="shared" ca="1" si="82"/>
@@ -6609,15 +6670,15 @@
       </c>
       <c r="AW15">
         <f t="shared" ca="1" si="84"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX15">
         <f t="shared" ca="1" si="85"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY15">
         <f t="shared" ca="1" si="86"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ15">
         <f t="shared" ca="1" si="87"/>
@@ -6633,15 +6694,15 @@
       </c>
       <c r="BC15">
         <f t="shared" ca="1" si="90"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD15">
         <f t="shared" ca="1" si="91"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BE15">
         <f t="shared" ca="1" si="92"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF15">
         <f t="shared" ca="1" si="93"/>
@@ -6649,19 +6710,19 @@
       </c>
       <c r="BG15">
         <f t="shared" ca="1" si="94"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH15">
         <f t="shared" ca="1" si="95"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BI15">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ15">
         <f t="shared" ca="1" si="97"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK15">
         <f t="shared" ca="1" si="98"/>
@@ -6669,7 +6730,7 @@
       </c>
       <c r="BL15">
         <f t="shared" ca="1" si="99"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM15">
         <f t="shared" ca="1" si="100"/>
@@ -6682,11 +6743,11 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="66"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="0"/>
@@ -6702,7 +6763,7 @@
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="0"/>
@@ -6726,7 +6787,7 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="0"/>
@@ -6734,7 +6795,7 @@
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="0"/>
@@ -6746,7 +6807,7 @@
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="67"/>
@@ -6758,7 +6819,7 @@
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="67"/>
@@ -6766,7 +6827,7 @@
       </c>
       <c r="W16">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X16">
         <f t="shared" ca="1" si="67"/>
@@ -6782,19 +6843,19 @@
       </c>
       <c r="AA16">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC16">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD16">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE16">
         <f t="shared" ca="1" si="67"/>
@@ -6806,15 +6867,15 @@
       </c>
       <c r="AG16">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="69"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI16">
         <f t="shared" ca="1" si="70"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ16">
         <f t="shared" ca="1" si="71"/>
@@ -6830,7 +6891,7 @@
       </c>
       <c r="AM16">
         <f t="shared" ca="1" si="74"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN16">
         <f t="shared" ca="1" si="75"/>
@@ -6854,7 +6915,7 @@
       </c>
       <c r="AS16">
         <f t="shared" ca="1" si="80"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT16">
         <f t="shared" ca="1" si="81"/>
@@ -6862,7 +6923,7 @@
       </c>
       <c r="AU16">
         <f t="shared" ca="1" si="82"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV16">
         <f t="shared" ca="1" si="83"/>
@@ -6874,7 +6935,7 @@
       </c>
       <c r="AX16">
         <f t="shared" ca="1" si="85"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY16">
         <f t="shared" ca="1" si="86"/>
@@ -6886,7 +6947,7 @@
       </c>
       <c r="BA16">
         <f t="shared" ca="1" si="88"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB16">
         <f t="shared" ca="1" si="89"/>
@@ -6894,7 +6955,7 @@
       </c>
       <c r="BC16">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD16">
         <f t="shared" ca="1" si="91"/>
@@ -6910,19 +6971,19 @@
       </c>
       <c r="BG16">
         <f t="shared" ca="1" si="94"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BH16">
         <f t="shared" ca="1" si="95"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI16">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ16">
         <f t="shared" ca="1" si="97"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BK16">
         <f t="shared" ca="1" si="98"/>
@@ -6934,7 +6995,7 @@
       </c>
       <c r="BM16">
         <f t="shared" ca="1" si="100"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:65" x14ac:dyDescent="0.25">
@@ -6955,23 +7016,23 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="0"/>
@@ -6983,7 +7044,7 @@
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="0"/>
@@ -6995,11 +7056,11 @@
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="0"/>
@@ -7019,31 +7080,31 @@
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W17">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X17">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y17">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z17">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="67"/>
@@ -7051,7 +7112,7 @@
       </c>
       <c r="AC17">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD17">
         <f t="shared" ca="1" si="67"/>
@@ -7059,15 +7120,15 @@
       </c>
       <c r="AE17">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF17">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG17">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH17">
         <f t="shared" ca="1" si="69"/>
@@ -7083,23 +7144,23 @@
       </c>
       <c r="AK17">
         <f t="shared" ca="1" si="72"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL17">
         <f t="shared" ca="1" si="73"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM17">
         <f t="shared" ca="1" si="74"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN17">
         <f t="shared" ca="1" si="75"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO17">
         <f t="shared" ca="1" si="76"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP17">
         <f t="shared" ca="1" si="77"/>
@@ -7111,7 +7172,7 @@
       </c>
       <c r="AR17">
         <f t="shared" ca="1" si="79"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS17">
         <f t="shared" ca="1" si="80"/>
@@ -7123,11 +7184,11 @@
       </c>
       <c r="AU17">
         <f t="shared" ca="1" si="82"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV17">
         <f t="shared" ca="1" si="83"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW17">
         <f t="shared" ca="1" si="84"/>
@@ -7147,31 +7208,31 @@
       </c>
       <c r="BA17">
         <f t="shared" ca="1" si="88"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB17">
         <f t="shared" ca="1" si="89"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC17">
         <f t="shared" ca="1" si="90"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD17">
         <f t="shared" ca="1" si="91"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE17">
         <f t="shared" ca="1" si="92"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF17">
         <f t="shared" ca="1" si="93"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG17">
         <f t="shared" ca="1" si="94"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH17">
         <f t="shared" ca="1" si="95"/>
@@ -7179,7 +7240,7 @@
       </c>
       <c r="BI17">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ17">
         <f t="shared" ca="1" si="97"/>
@@ -7187,15 +7248,15 @@
       </c>
       <c r="BK17">
         <f t="shared" ca="1" si="98"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL17">
         <f t="shared" ca="1" si="99"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM17">
         <f t="shared" ca="1" si="100"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:65" x14ac:dyDescent="0.25">
@@ -7208,7 +7269,7 @@
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="66"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="66"/>
@@ -7224,11 +7285,11 @@
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="66"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="66"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="66"/>
@@ -7236,7 +7297,7 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="66"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="66"/>
@@ -7248,7 +7309,7 @@
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="66"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="66"/>
@@ -7264,7 +7325,7 @@
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="66"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <f t="shared" ref="C18:R26" ca="1" si="101">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
@@ -7272,7 +7333,7 @@
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="67"/>
@@ -7316,11 +7377,11 @@
       </c>
       <c r="AD18">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE18">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF18">
         <f t="shared" ca="1" si="67"/>
@@ -7336,7 +7397,7 @@
       </c>
       <c r="AI18">
         <f t="shared" ca="1" si="70"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ18">
         <f t="shared" ca="1" si="71"/>
@@ -7352,11 +7413,11 @@
       </c>
       <c r="AM18">
         <f t="shared" ca="1" si="74"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN18">
         <f t="shared" ca="1" si="75"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO18">
         <f t="shared" ca="1" si="76"/>
@@ -7364,7 +7425,7 @@
       </c>
       <c r="AP18">
         <f t="shared" ca="1" si="77"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ18">
         <f t="shared" ca="1" si="78"/>
@@ -7376,7 +7437,7 @@
       </c>
       <c r="AS18">
         <f t="shared" ca="1" si="80"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT18">
         <f t="shared" ca="1" si="81"/>
@@ -7392,7 +7453,7 @@
       </c>
       <c r="AW18">
         <f t="shared" ca="1" si="84"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX18">
         <f t="shared" ca="1" si="85"/>
@@ -7400,7 +7461,7 @@
       </c>
       <c r="AY18">
         <f t="shared" ca="1" si="86"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ18">
         <f t="shared" ca="1" si="87"/>
@@ -7444,11 +7505,11 @@
       </c>
       <c r="BJ18">
         <f t="shared" ca="1" si="97"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK18">
         <f t="shared" ca="1" si="98"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL18">
         <f t="shared" ca="1" si="99"/>
@@ -7477,35 +7538,35 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="101"/>
@@ -7517,7 +7578,7 @@
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="101"/>
@@ -7525,15 +7586,15 @@
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T19">
         <f t="shared" ca="1" si="67"/>
@@ -7545,11 +7606,11 @@
       </c>
       <c r="V19">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W19">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X19">
         <f t="shared" ca="1" si="67"/>
@@ -7557,23 +7618,23 @@
       </c>
       <c r="Y19">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z19">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB19">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC19">
         <f t="shared" ca="1" si="67"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD19">
         <f t="shared" ca="1" si="67"/>
@@ -7585,7 +7646,7 @@
       </c>
       <c r="AF19">
         <f t="shared" ca="1" si="67"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG19">
         <f t="shared" ca="1" si="67"/>
@@ -7605,35 +7666,35 @@
       </c>
       <c r="AK19">
         <f t="shared" ca="1" si="72"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL19">
         <f t="shared" ca="1" si="73"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM19">
         <f t="shared" ca="1" si="74"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN19">
         <f t="shared" ca="1" si="75"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO19">
         <f t="shared" ca="1" si="76"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP19">
         <f t="shared" ca="1" si="77"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ19">
         <f t="shared" ca="1" si="78"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR19">
         <f t="shared" ca="1" si="79"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS19">
         <f t="shared" ca="1" si="80"/>
@@ -7645,7 +7706,7 @@
       </c>
       <c r="AU19">
         <f t="shared" ca="1" si="82"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV19">
         <f t="shared" ca="1" si="83"/>
@@ -7653,15 +7714,15 @@
       </c>
       <c r="AW19">
         <f t="shared" ca="1" si="84"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX19">
         <f t="shared" ca="1" si="85"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY19">
         <f t="shared" ca="1" si="86"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ19">
         <f t="shared" ca="1" si="87"/>
@@ -7673,11 +7734,11 @@
       </c>
       <c r="BB19">
         <f t="shared" ca="1" si="89"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC19">
         <f t="shared" ca="1" si="90"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD19">
         <f t="shared" ca="1" si="91"/>
@@ -7685,23 +7746,23 @@
       </c>
       <c r="BE19">
         <f t="shared" ca="1" si="92"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF19">
         <f t="shared" ca="1" si="93"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG19">
         <f t="shared" ca="1" si="94"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BH19">
         <f t="shared" ca="1" si="95"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BI19">
         <f t="shared" ca="1" si="96"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ19">
         <f t="shared" ca="1" si="97"/>
@@ -7713,7 +7774,7 @@
       </c>
       <c r="BL19">
         <f t="shared" ca="1" si="99"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM19">
         <f t="shared" ca="1" si="100"/>
@@ -7726,7 +7787,7 @@
       </c>
       <c r="B20">
         <f t="shared" ref="B20:B26" ca="1" si="102">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="101"/>
@@ -7734,7 +7795,7 @@
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="101"/>
@@ -7754,11 +7815,11 @@
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="101"/>
@@ -7778,11 +7839,11 @@
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="101"/>
@@ -7790,15 +7851,15 @@
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S20">
         <f t="shared" ref="S20:AG26" ca="1" si="103">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U20">
         <f t="shared" ca="1" si="103"/>
@@ -7806,7 +7867,7 @@
       </c>
       <c r="V20">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W20">
         <f t="shared" ca="1" si="103"/>
@@ -7814,11 +7875,11 @@
       </c>
       <c r="X20">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z20">
         <f t="shared" ca="1" si="103"/>
@@ -7834,11 +7895,11 @@
       </c>
       <c r="AC20">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD20">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE20">
         <f t="shared" ca="1" si="103"/>
@@ -7850,11 +7911,11 @@
       </c>
       <c r="AG20">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH20">
         <f t="shared" ca="1" si="69"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI20">
         <f t="shared" ca="1" si="70"/>
@@ -7862,7 +7923,7 @@
       </c>
       <c r="AJ20">
         <f t="shared" ca="1" si="71"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK20">
         <f t="shared" ca="1" si="72"/>
@@ -7882,11 +7943,11 @@
       </c>
       <c r="AO20">
         <f t="shared" ca="1" si="76"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP20">
         <f t="shared" ca="1" si="77"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ20">
         <f t="shared" ca="1" si="78"/>
@@ -7906,11 +7967,11 @@
       </c>
       <c r="AU20">
         <f t="shared" ca="1" si="82"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV20">
         <f t="shared" ca="1" si="83"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AW20">
         <f t="shared" ca="1" si="84"/>
@@ -7918,15 +7979,15 @@
       </c>
       <c r="AX20">
         <f t="shared" ca="1" si="85"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY20">
         <f t="shared" ca="1" si="86"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ20">
         <f t="shared" ca="1" si="87"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA20">
         <f t="shared" ca="1" si="88"/>
@@ -7934,7 +7995,7 @@
       </c>
       <c r="BB20">
         <f t="shared" ca="1" si="89"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC20">
         <f t="shared" ca="1" si="90"/>
@@ -7942,11 +8003,11 @@
       </c>
       <c r="BD20">
         <f t="shared" ca="1" si="91"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BE20">
         <f t="shared" ca="1" si="92"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF20">
         <f t="shared" ca="1" si="93"/>
@@ -7962,11 +8023,11 @@
       </c>
       <c r="BI20">
         <f t="shared" ca="1" si="96"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ20">
         <f t="shared" ca="1" si="97"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BK20">
         <f t="shared" ca="1" si="98"/>
@@ -7978,7 +8039,7 @@
       </c>
       <c r="BM20">
         <f t="shared" ca="1" si="100"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="21" spans="1:65" x14ac:dyDescent="0.25">
@@ -7987,15 +8048,15 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="102"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="101"/>
@@ -8007,11 +8068,11 @@
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="101"/>
@@ -8023,7 +8084,7 @@
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="101"/>
@@ -8031,19 +8092,19 @@
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="101"/>
@@ -8051,7 +8112,7 @@
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="103"/>
@@ -8059,7 +8120,7 @@
       </c>
       <c r="T21">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U21">
         <f t="shared" ca="1" si="103"/>
@@ -8067,7 +8128,7 @@
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W21">
         <f t="shared" ca="1" si="103"/>
@@ -8075,11 +8136,11 @@
       </c>
       <c r="X21">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y21">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z21">
         <f t="shared" ca="1" si="103"/>
@@ -8091,19 +8152,19 @@
       </c>
       <c r="AB21">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC21">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD21">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE21">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF21">
         <f t="shared" ca="1" si="103"/>
@@ -8111,19 +8172,19 @@
       </c>
       <c r="AG21">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH21">
         <f t="shared" ref="AH21:AH26" ca="1" si="104">IF(B21=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI21">
         <f t="shared" ref="AI21:AI26" ca="1" si="105">IF(C21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ21">
         <f t="shared" ref="AJ21:AJ26" ca="1" si="106">IF(D21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK21">
         <f t="shared" ref="AK21:AK26" ca="1" si="107">IF(E21=0,1.1,0)</f>
@@ -8135,11 +8196,11 @@
       </c>
       <c r="AM21">
         <f t="shared" ref="AM21:AM26" ca="1" si="109">IF(G21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN21">
         <f t="shared" ref="AN21:AN26" ca="1" si="110">IF(H21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO21">
         <f t="shared" ref="AO21:AO26" ca="1" si="111">IF(I21=0,1.1,0)</f>
@@ -8151,7 +8212,7 @@
       </c>
       <c r="AQ21">
         <f t="shared" ref="AQ21:AQ26" ca="1" si="113">IF(K21=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR21">
         <f t="shared" ref="AR21:AR26" ca="1" si="114">IF(L21=0,1.1,0)</f>
@@ -8159,19 +8220,19 @@
       </c>
       <c r="AS21">
         <f t="shared" ref="AS21:AS26" ca="1" si="115">IF(M21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT21">
         <f t="shared" ref="AT21:AT26" ca="1" si="116">IF(N21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU21">
         <f t="shared" ref="AU21:AU26" ca="1" si="117">IF(O21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV21">
         <f t="shared" ref="AV21:AV26" ca="1" si="118">IF(P21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW21">
         <f t="shared" ref="AW21:AW26" ca="1" si="119">IF(Q21=0,1.1,0)</f>
@@ -8179,7 +8240,7 @@
       </c>
       <c r="AX21">
         <f t="shared" ref="AX21:AX26" ca="1" si="120">IF(R21=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY21">
         <f t="shared" ref="AY21:AY26" ca="1" si="121">IF(S21=0,1.1,0)</f>
@@ -8187,7 +8248,7 @@
       </c>
       <c r="AZ21">
         <f t="shared" ref="AZ21:AZ26" ca="1" si="122">IF(T21=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA21">
         <f t="shared" ref="BA21:BA26" ca="1" si="123">IF(U21=0,1.1,0)</f>
@@ -8195,7 +8256,7 @@
       </c>
       <c r="BB21">
         <f t="shared" ref="BB21:BB26" ca="1" si="124">IF(V21=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC21">
         <f t="shared" ref="BC21:BC26" ca="1" si="125">IF(W21=0,1.1,0)</f>
@@ -8203,11 +8264,11 @@
       </c>
       <c r="BD21">
         <f t="shared" ref="BD21:BD26" ca="1" si="126">IF(X21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE21">
         <f t="shared" ref="BE21:BE26" ca="1" si="127">IF(Y21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF21">
         <f t="shared" ref="BF21:BF26" ca="1" si="128">IF(Z21=0,1.1,0)</f>
@@ -8219,19 +8280,19 @@
       </c>
       <c r="BH21">
         <f t="shared" ref="BH21:BH26" ca="1" si="130">IF(AB21=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI21">
         <f t="shared" ref="BI21:BI26" ca="1" si="131">IF(AC21=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ21">
         <f t="shared" ref="BJ21:BJ26" ca="1" si="132">IF(AD21=0,1.1,0)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BK21">
         <f t="shared" ref="BK21:BK26" ca="1" si="133">IF(AE21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL21">
         <f t="shared" ref="BL21:BL26" ca="1" si="134">IF(AF21=0,1.1,0)</f>
@@ -8239,7 +8300,7 @@
       </c>
       <c r="BM21">
         <f t="shared" ref="BM21:BM26" ca="1" si="135">IF(AG21=0,1.1,0)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:65" x14ac:dyDescent="0.25">
@@ -8248,19 +8309,19 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="102"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="101"/>
@@ -8276,15 +8337,15 @@
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="101"/>
@@ -8292,7 +8353,7 @@
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="101"/>
@@ -8316,15 +8377,15 @@
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T22">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U22">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V22">
         <f t="shared" ca="1" si="103"/>
@@ -8340,11 +8401,11 @@
       </c>
       <c r="Y22">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z22">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA22">
         <f t="shared" ca="1" si="103"/>
@@ -8360,11 +8421,11 @@
       </c>
       <c r="AD22">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE22">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF22">
         <f t="shared" ca="1" si="103"/>
@@ -8376,19 +8437,19 @@
       </c>
       <c r="AH22">
         <f t="shared" ca="1" si="104"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI22">
         <f t="shared" ca="1" si="105"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ22">
         <f t="shared" ca="1" si="106"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK22">
         <f t="shared" ca="1" si="107"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL22">
         <f t="shared" ca="1" si="108"/>
@@ -8404,15 +8465,15 @@
       </c>
       <c r="AO22">
         <f t="shared" ca="1" si="111"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP22">
         <f t="shared" ca="1" si="112"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ22">
         <f t="shared" ca="1" si="113"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AR22">
         <f t="shared" ca="1" si="114"/>
@@ -8420,7 +8481,7 @@
       </c>
       <c r="AS22">
         <f t="shared" ca="1" si="115"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT22">
         <f t="shared" ca="1" si="116"/>
@@ -8444,15 +8505,15 @@
       </c>
       <c r="AY22">
         <f t="shared" ca="1" si="121"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ22">
         <f t="shared" ca="1" si="122"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BA22">
         <f t="shared" ca="1" si="123"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB22">
         <f t="shared" ca="1" si="124"/>
@@ -8468,11 +8529,11 @@
       </c>
       <c r="BE22">
         <f t="shared" ca="1" si="127"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF22">
         <f t="shared" ca="1" si="128"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG22">
         <f t="shared" ca="1" si="129"/>
@@ -8488,11 +8549,11 @@
       </c>
       <c r="BJ22">
         <f t="shared" ca="1" si="132"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BK22">
         <f t="shared" ca="1" si="133"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL22">
         <f t="shared" ca="1" si="134"/>
@@ -8517,7 +8578,7 @@
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="101"/>
@@ -8525,11 +8586,11 @@
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="101"/>
@@ -8545,7 +8606,7 @@
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="101"/>
@@ -8553,7 +8614,7 @@
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="101"/>
@@ -8561,11 +8622,11 @@
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="101"/>
@@ -8581,15 +8642,15 @@
       </c>
       <c r="T23">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U23">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V23">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <f t="shared" ca="1" si="103"/>
@@ -8597,7 +8658,7 @@
       </c>
       <c r="X23">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y23">
         <f t="shared" ca="1" si="103"/>
@@ -8613,11 +8674,11 @@
       </c>
       <c r="AB23">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC23">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD23">
         <f t="shared" ca="1" si="103"/>
@@ -8625,7 +8686,7 @@
       </c>
       <c r="AE23">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF23">
         <f t="shared" ca="1" si="103"/>
@@ -8645,7 +8706,7 @@
       </c>
       <c r="AJ23">
         <f t="shared" ca="1" si="106"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK23">
         <f t="shared" ca="1" si="107"/>
@@ -8653,11 +8714,11 @@
       </c>
       <c r="AL23">
         <f t="shared" ca="1" si="108"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM23">
         <f t="shared" ca="1" si="109"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN23">
         <f t="shared" ca="1" si="110"/>
@@ -8673,7 +8734,7 @@
       </c>
       <c r="AQ23">
         <f t="shared" ca="1" si="113"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR23">
         <f t="shared" ca="1" si="114"/>
@@ -8681,7 +8742,7 @@
       </c>
       <c r="AS23">
         <f t="shared" ca="1" si="115"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT23">
         <f t="shared" ca="1" si="116"/>
@@ -8689,11 +8750,11 @@
       </c>
       <c r="AU23">
         <f t="shared" ca="1" si="117"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV23">
         <f t="shared" ca="1" si="118"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AW23">
         <f t="shared" ca="1" si="119"/>
@@ -8709,15 +8770,15 @@
       </c>
       <c r="AZ23">
         <f t="shared" ca="1" si="122"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BA23">
         <f t="shared" ca="1" si="123"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB23">
         <f t="shared" ca="1" si="124"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC23">
         <f t="shared" ca="1" si="125"/>
@@ -8725,7 +8786,7 @@
       </c>
       <c r="BD23">
         <f t="shared" ca="1" si="126"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE23">
         <f t="shared" ca="1" si="127"/>
@@ -8741,11 +8802,11 @@
       </c>
       <c r="BH23">
         <f t="shared" ca="1" si="130"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI23">
         <f t="shared" ca="1" si="131"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ23">
         <f t="shared" ca="1" si="132"/>
@@ -8753,7 +8814,7 @@
       </c>
       <c r="BK23">
         <f t="shared" ca="1" si="133"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL23">
         <f t="shared" ca="1" si="134"/>
@@ -8774,7 +8835,7 @@
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="101"/>
@@ -8798,11 +8859,11 @@
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="101"/>
@@ -8814,15 +8875,15 @@
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="101"/>
@@ -8830,7 +8891,7 @@
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="101"/>
@@ -8850,7 +8911,7 @@
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W24">
         <f t="shared" ca="1" si="103"/>
@@ -8862,7 +8923,7 @@
       </c>
       <c r="Y24">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z24">
         <f t="shared" ca="1" si="103"/>
@@ -8870,11 +8931,11 @@
       </c>
       <c r="AA24">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB24">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC24">
         <f t="shared" ca="1" si="103"/>
@@ -8882,15 +8943,15 @@
       </c>
       <c r="AD24">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE24">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF24">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG24">
         <f t="shared" ca="1" si="103"/>
@@ -8902,7 +8963,7 @@
       </c>
       <c r="AI24">
         <f t="shared" ca="1" si="105"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ24">
         <f t="shared" ca="1" si="106"/>
@@ -8926,11 +8987,11 @@
       </c>
       <c r="AO24">
         <f t="shared" ca="1" si="111"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP24">
         <f t="shared" ca="1" si="112"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ24">
         <f t="shared" ca="1" si="113"/>
@@ -8942,15 +9003,15 @@
       </c>
       <c r="AS24">
         <f t="shared" ca="1" si="115"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT24">
         <f t="shared" ca="1" si="116"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU24">
         <f t="shared" ca="1" si="117"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV24">
         <f t="shared" ca="1" si="118"/>
@@ -8958,7 +9019,7 @@
       </c>
       <c r="AW24">
         <f t="shared" ca="1" si="119"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX24">
         <f t="shared" ca="1" si="120"/>
@@ -8978,7 +9039,7 @@
       </c>
       <c r="BB24">
         <f t="shared" ca="1" si="124"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BC24">
         <f t="shared" ca="1" si="125"/>
@@ -8990,7 +9051,7 @@
       </c>
       <c r="BE24">
         <f t="shared" ca="1" si="127"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF24">
         <f t="shared" ca="1" si="128"/>
@@ -8998,11 +9059,11 @@
       </c>
       <c r="BG24">
         <f t="shared" ca="1" si="129"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH24">
         <f t="shared" ca="1" si="130"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI24">
         <f t="shared" ca="1" si="131"/>
@@ -9010,15 +9071,15 @@
       </c>
       <c r="BJ24">
         <f t="shared" ca="1" si="132"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BK24">
         <f t="shared" ca="1" si="133"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BL24">
         <f t="shared" ca="1" si="134"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM24">
         <f t="shared" ca="1" si="135"/>
@@ -9031,35 +9092,35 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="102"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="101"/>
@@ -9067,11 +9128,11 @@
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="101"/>
@@ -9087,7 +9148,7 @@
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="101"/>
@@ -9095,11 +9156,11 @@
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T25">
         <f t="shared" ca="1" si="103"/>
@@ -9107,31 +9168,31 @@
       </c>
       <c r="U25">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="W25">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X25">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y25">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z25">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA25">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB25">
         <f t="shared" ca="1" si="103"/>
@@ -9143,15 +9204,15 @@
       </c>
       <c r="AD25">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE25">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF25">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG25">
         <f t="shared" ca="1" si="103"/>
@@ -9159,35 +9220,35 @@
       </c>
       <c r="AH25">
         <f t="shared" ca="1" si="104"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI25">
         <f t="shared" ca="1" si="105"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ25">
         <f t="shared" ca="1" si="106"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK25">
         <f t="shared" ca="1" si="107"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL25">
         <f t="shared" ca="1" si="108"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM25">
         <f t="shared" ca="1" si="109"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN25">
         <f t="shared" ca="1" si="110"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO25">
         <f t="shared" ca="1" si="111"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP25">
         <f t="shared" ca="1" si="112"/>
@@ -9195,11 +9256,11 @@
       </c>
       <c r="AQ25">
         <f t="shared" ca="1" si="113"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR25">
         <f t="shared" ca="1" si="114"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS25">
         <f t="shared" ca="1" si="115"/>
@@ -9215,7 +9276,7 @@
       </c>
       <c r="AV25">
         <f t="shared" ca="1" si="118"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW25">
         <f t="shared" ca="1" si="119"/>
@@ -9223,11 +9284,11 @@
       </c>
       <c r="AX25">
         <f t="shared" ca="1" si="120"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY25">
         <f t="shared" ca="1" si="121"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ25">
         <f t="shared" ca="1" si="122"/>
@@ -9235,31 +9296,31 @@
       </c>
       <c r="BA25">
         <f t="shared" ca="1" si="123"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB25">
         <f t="shared" ca="1" si="124"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC25">
         <f t="shared" ca="1" si="125"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD25">
         <f t="shared" ca="1" si="126"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BE25">
         <f t="shared" ca="1" si="127"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF25">
         <f t="shared" ca="1" si="128"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG25">
         <f t="shared" ca="1" si="129"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BH25">
         <f t="shared" ca="1" si="130"/>
@@ -9271,15 +9332,15 @@
       </c>
       <c r="BJ25">
         <f t="shared" ca="1" si="132"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BK25">
         <f t="shared" ca="1" si="133"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL25">
         <f t="shared" ca="1" si="134"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM25">
         <f t="shared" ca="1" si="135"/>
@@ -9292,7 +9353,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="102"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="101"/>
@@ -9304,11 +9365,11 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="101"/>
@@ -9320,23 +9381,23 @@
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="101"/>
@@ -9348,11 +9409,11 @@
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="101"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="101"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="101"/>
@@ -9360,11 +9421,11 @@
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="103"/>
@@ -9384,15 +9445,15 @@
       </c>
       <c r="Y26">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z26">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA26">
         <f t="shared" ca="1" si="103"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB26">
         <f t="shared" ca="1" si="103"/>
@@ -9404,7 +9465,7 @@
       </c>
       <c r="AD26">
         <f t="shared" ca="1" si="103"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE26">
         <f t="shared" ca="1" si="103"/>
@@ -9420,7 +9481,7 @@
       </c>
       <c r="AH26">
         <f t="shared" ca="1" si="104"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI26">
         <f t="shared" ca="1" si="105"/>
@@ -9432,11 +9493,11 @@
       </c>
       <c r="AK26">
         <f t="shared" ca="1" si="107"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL26">
         <f t="shared" ca="1" si="108"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM26">
         <f t="shared" ca="1" si="109"/>
@@ -9448,23 +9509,23 @@
       </c>
       <c r="AO26">
         <f t="shared" ca="1" si="111"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP26">
         <f t="shared" ca="1" si="112"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ26">
         <f t="shared" ca="1" si="113"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR26">
         <f t="shared" ca="1" si="114"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS26">
         <f t="shared" ca="1" si="115"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT26">
         <f t="shared" ca="1" si="116"/>
@@ -9476,11 +9537,11 @@
       </c>
       <c r="AV26">
         <f t="shared" ca="1" si="118"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AW26">
         <f t="shared" ca="1" si="119"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX26">
         <f t="shared" ca="1" si="120"/>
@@ -9488,11 +9549,11 @@
       </c>
       <c r="AY26">
         <f t="shared" ca="1" si="121"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ26">
         <f t="shared" ca="1" si="122"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA26">
         <f t="shared" ca="1" si="123"/>
@@ -9512,15 +9573,15 @@
       </c>
       <c r="BE26">
         <f t="shared" ca="1" si="127"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF26">
         <f t="shared" ca="1" si="128"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG26">
         <f t="shared" ca="1" si="129"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BH26">
         <f t="shared" ca="1" si="130"/>
@@ -9532,7 +9593,7 @@
       </c>
       <c r="BJ26">
         <f t="shared" ca="1" si="132"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BK26">
         <f t="shared" ca="1" si="133"/>
@@ -11335,19 +11396,19 @@
       </c>
       <c r="C45">
         <f t="shared" ref="C45:S54" ca="1" si="200">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="200"/>
@@ -11371,11 +11432,11 @@
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="200"/>
@@ -11383,27 +11444,27 @@
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P45">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R45">
         <f ca="1">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S45">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T45">
         <f t="shared" ref="S45:AG54" ca="1" si="201">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U45">
         <f t="shared" ca="1" si="201"/>
@@ -11419,7 +11480,7 @@
       </c>
       <c r="X45">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y45">
         <f t="shared" ca="1" si="201"/>
@@ -11427,23 +11488,23 @@
       </c>
       <c r="Z45">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA45">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB45">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC45">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD45">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE45">
         <f t="shared" ca="1" si="201"/>
@@ -11463,19 +11524,19 @@
       </c>
       <c r="AI45">
         <f t="shared" ref="AI45:BM45" ca="1" si="202">C45</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ45">
         <f t="shared" ca="1" si="202"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK45">
         <f t="shared" ca="1" si="202"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL45">
         <f t="shared" ca="1" si="202"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM45">
         <f t="shared" ca="1" si="202"/>
@@ -11499,11 +11560,11 @@
       </c>
       <c r="AR45">
         <f t="shared" ca="1" si="202"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS45">
         <f t="shared" ca="1" si="202"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT45">
         <f t="shared" ca="1" si="202"/>
@@ -11511,27 +11572,27 @@
       </c>
       <c r="AU45">
         <f t="shared" ca="1" si="202"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV45">
         <f t="shared" ca="1" si="202"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW45">
         <f ca="1">Q45</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX45">
         <f t="shared" ca="1" si="202"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY45">
         <f t="shared" ca="1" si="202"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ45">
         <f t="shared" ca="1" si="202"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BA45">
         <f t="shared" ca="1" si="202"/>
@@ -11547,7 +11608,7 @@
       </c>
       <c r="BD45">
         <f t="shared" ca="1" si="202"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BE45">
         <f t="shared" ca="1" si="202"/>
@@ -11555,23 +11616,23 @@
       </c>
       <c r="BF45">
         <f t="shared" ca="1" si="202"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG45">
         <f t="shared" ca="1" si="202"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH45">
         <f t="shared" ca="1" si="202"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI45">
         <f t="shared" ca="1" si="202"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ45">
         <f t="shared" ca="1" si="202"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK45">
         <f t="shared" ca="1" si="202"/>
@@ -11596,11 +11657,11 @@
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="200"/>
@@ -11612,7 +11673,7 @@
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="200"/>
@@ -11620,39 +11681,39 @@
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R46">
         <f t="shared" ca="1" si="200"/>
@@ -11668,7 +11729,7 @@
       </c>
       <c r="U46">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="201"/>
@@ -11676,15 +11737,15 @@
       </c>
       <c r="W46">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X46">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y46">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z46">
         <f t="shared" ca="1" si="201"/>
@@ -11696,11 +11757,11 @@
       </c>
       <c r="AB46">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC46">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD46">
         <f t="shared" ca="1" si="201"/>
@@ -11716,7 +11777,7 @@
       </c>
       <c r="AG46">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH46">
         <f t="shared" ref="AH46:AH52" ca="1" si="204">B46</f>
@@ -11724,11 +11785,11 @@
       </c>
       <c r="AI46">
         <f t="shared" ref="AI46:AI52" ca="1" si="205">C46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ46">
         <f t="shared" ref="AJ46:AJ52" ca="1" si="206">D46</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK46">
         <f t="shared" ref="AK46:AK52" ca="1" si="207">E46</f>
@@ -11740,7 +11801,7 @@
       </c>
       <c r="AM46">
         <f t="shared" ref="AM46:AM52" ca="1" si="209">G46</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN46">
         <f t="shared" ref="AN46:AN52" ca="1" si="210">H46</f>
@@ -11748,39 +11809,39 @@
       </c>
       <c r="AO46">
         <f t="shared" ref="AO46:AO52" ca="1" si="211">I46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP46">
         <f t="shared" ref="AP46:AP52" ca="1" si="212">J46</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ46">
         <f t="shared" ref="AQ46:AQ52" ca="1" si="213">K46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR46">
         <f t="shared" ref="AR46:AR52" ca="1" si="214">L46</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS46">
         <f t="shared" ref="AS46:AS52" ca="1" si="215">M46</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT46">
         <f t="shared" ref="AT46:AT52" ca="1" si="216">N46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU46">
         <f t="shared" ref="AU46:AU52" ca="1" si="217">O46</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV46">
         <f t="shared" ref="AV46:AV52" ca="1" si="218">P46</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AW46">
         <f t="shared" ref="AW46:AW52" ca="1" si="219">Q46</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX46">
         <f t="shared" ref="AX46:AX52" ca="1" si="220">R46</f>
@@ -11796,7 +11857,7 @@
       </c>
       <c r="BA46">
         <f t="shared" ref="BA46:BA52" ca="1" si="223">U46</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB46">
         <f t="shared" ref="BB46:BB52" ca="1" si="224">V46</f>
@@ -11804,15 +11865,15 @@
       </c>
       <c r="BC46">
         <f t="shared" ref="BC46:BC52" ca="1" si="225">W46</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD46">
         <f t="shared" ref="BD46:BD52" ca="1" si="226">X46</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BE46">
         <f t="shared" ref="BE46:BE52" ca="1" si="227">Y46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF46">
         <f t="shared" ref="BF46:BF52" ca="1" si="228">Z46</f>
@@ -11824,11 +11885,11 @@
       </c>
       <c r="BH46">
         <f t="shared" ref="BH46:BH52" ca="1" si="230">AB46</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI46">
         <f t="shared" ref="BI46:BI52" ca="1" si="231">AC46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ46">
         <f t="shared" ref="BJ46:BJ52" ca="1" si="232">AD46</f>
@@ -11844,7 +11905,7 @@
       </c>
       <c r="BM46">
         <f t="shared" ref="BM46:BM52" ca="1" si="235">AG46</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:102" x14ac:dyDescent="0.25">
@@ -11853,7 +11914,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="203"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C47">
         <f t="shared" ca="1" si="200"/>
@@ -11865,27 +11926,27 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="200"/>
@@ -11893,15 +11954,15 @@
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="200"/>
@@ -11913,7 +11974,7 @@
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="200"/>
@@ -11921,7 +11982,7 @@
       </c>
       <c r="S47">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T47">
         <f t="shared" ca="1" si="201"/>
@@ -11929,7 +11990,7 @@
       </c>
       <c r="U47">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="201"/>
@@ -11949,11 +12010,11 @@
       </c>
       <c r="Z47">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA47">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB47">
         <f t="shared" ca="1" si="201"/>
@@ -11961,11 +12022,11 @@
       </c>
       <c r="AC47">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD47">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE47">
         <f t="shared" ca="1" si="201"/>
@@ -11973,15 +12034,15 @@
       </c>
       <c r="AF47">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG47">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH47">
         <f t="shared" ca="1" si="204"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI47">
         <f t="shared" ca="1" si="205"/>
@@ -11993,27 +12054,27 @@
       </c>
       <c r="AK47">
         <f t="shared" ca="1" si="207"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL47">
         <f t="shared" ca="1" si="208"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AM47">
         <f t="shared" ca="1" si="209"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN47">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO47">
         <f t="shared" ca="1" si="211"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP47">
         <f t="shared" ca="1" si="212"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ47">
         <f t="shared" ca="1" si="213"/>
@@ -12021,15 +12082,15 @@
       </c>
       <c r="AR47">
         <f t="shared" ca="1" si="214"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS47">
         <f t="shared" ca="1" si="215"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT47">
         <f t="shared" ca="1" si="216"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU47">
         <f t="shared" ca="1" si="217"/>
@@ -12041,7 +12102,7 @@
       </c>
       <c r="AW47">
         <f t="shared" ca="1" si="219"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX47">
         <f t="shared" ca="1" si="220"/>
@@ -12049,7 +12110,7 @@
       </c>
       <c r="AY47">
         <f t="shared" ca="1" si="221"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ47">
         <f t="shared" ca="1" si="222"/>
@@ -12057,7 +12118,7 @@
       </c>
       <c r="BA47">
         <f t="shared" ca="1" si="223"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BB47">
         <f t="shared" ca="1" si="224"/>
@@ -12077,11 +12138,11 @@
       </c>
       <c r="BF47">
         <f t="shared" ca="1" si="228"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG47">
         <f t="shared" ca="1" si="229"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH47">
         <f t="shared" ca="1" si="230"/>
@@ -12089,11 +12150,11 @@
       </c>
       <c r="BI47">
         <f t="shared" ca="1" si="231"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ47">
         <f t="shared" ca="1" si="232"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK47">
         <f t="shared" ca="1" si="233"/>
@@ -12101,11 +12162,11 @@
       </c>
       <c r="BL47">
         <f t="shared" ca="1" si="234"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM47">
         <f t="shared" ca="1" si="235"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:102" x14ac:dyDescent="0.25">
@@ -12114,19 +12175,19 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="203"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="200"/>
@@ -12134,19 +12195,19 @@
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="200"/>
@@ -12154,43 +12215,43 @@
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S48">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T48">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U48">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="201"/>
@@ -12198,7 +12259,7 @@
       </c>
       <c r="W48">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X48">
         <f t="shared" ca="1" si="201"/>
@@ -12214,7 +12275,7 @@
       </c>
       <c r="AA48">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AB48">
         <f t="shared" ca="1" si="201"/>
@@ -12226,35 +12287,35 @@
       </c>
       <c r="AD48">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE48">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF48">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG48">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH48">
         <f t="shared" ca="1" si="204"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AI48">
         <f t="shared" ca="1" si="205"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ48">
         <f t="shared" ca="1" si="206"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK48">
         <f t="shared" ca="1" si="207"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL48">
         <f t="shared" ca="1" si="208"/>
@@ -12262,19 +12323,19 @@
       </c>
       <c r="AM48">
         <f t="shared" ca="1" si="209"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN48">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO48">
         <f t="shared" ca="1" si="211"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP48">
         <f t="shared" ca="1" si="212"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ48">
         <f t="shared" ca="1" si="213"/>
@@ -12282,43 +12343,43 @@
       </c>
       <c r="AR48">
         <f t="shared" ca="1" si="214"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS48">
         <f t="shared" ca="1" si="215"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT48">
         <f t="shared" ca="1" si="216"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU48">
         <f t="shared" ca="1" si="217"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV48">
         <f t="shared" ca="1" si="218"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AW48">
         <f t="shared" ca="1" si="219"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX48">
         <f t="shared" ca="1" si="220"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY48">
         <f t="shared" ca="1" si="221"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ48">
         <f t="shared" ca="1" si="222"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BA48">
         <f t="shared" ca="1" si="223"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB48">
         <f t="shared" ca="1" si="224"/>
@@ -12326,7 +12387,7 @@
       </c>
       <c r="BC48">
         <f t="shared" ca="1" si="225"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD48">
         <f t="shared" ca="1" si="226"/>
@@ -12342,7 +12403,7 @@
       </c>
       <c r="BG48">
         <f t="shared" ca="1" si="229"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BH48">
         <f t="shared" ca="1" si="230"/>
@@ -12354,19 +12415,19 @@
       </c>
       <c r="BJ48">
         <f t="shared" ca="1" si="232"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BK48">
         <f t="shared" ca="1" si="233"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BL48">
         <f t="shared" ca="1" si="234"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM48">
         <f t="shared" ca="1" si="235"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:65" x14ac:dyDescent="0.25">
@@ -12379,7 +12440,7 @@
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="200"/>
@@ -12387,7 +12448,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="200"/>
@@ -12399,19 +12460,19 @@
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="200"/>
@@ -12419,31 +12480,31 @@
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P49">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R49">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T49">
         <f t="shared" ca="1" si="201"/>
@@ -12455,11 +12516,11 @@
       </c>
       <c r="V49">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W49">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="X49">
         <f t="shared" ca="1" si="201"/>
@@ -12467,7 +12528,7 @@
       </c>
       <c r="Y49">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z49">
         <f t="shared" ca="1" si="201"/>
@@ -12479,11 +12540,11 @@
       </c>
       <c r="AB49">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC49">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AD49">
         <f t="shared" ca="1" si="201"/>
@@ -12491,15 +12552,15 @@
       </c>
       <c r="AE49">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AF49">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG49">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH49">
         <f t="shared" ca="1" si="204"/>
@@ -12507,7 +12568,7 @@
       </c>
       <c r="AI49">
         <f t="shared" ca="1" si="205"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ49">
         <f t="shared" ca="1" si="206"/>
@@ -12515,7 +12576,7 @@
       </c>
       <c r="AK49">
         <f t="shared" ca="1" si="207"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL49">
         <f t="shared" ca="1" si="208"/>
@@ -12527,19 +12588,19 @@
       </c>
       <c r="AN49">
         <f t="shared" ca="1" si="210"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AO49">
         <f t="shared" ca="1" si="211"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP49">
         <f t="shared" ca="1" si="212"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ49">
         <f t="shared" ca="1" si="213"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR49">
         <f t="shared" ca="1" si="214"/>
@@ -12547,31 +12608,31 @@
       </c>
       <c r="AS49">
         <f t="shared" ca="1" si="215"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AT49">
         <f t="shared" ca="1" si="216"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AU49">
         <f t="shared" ca="1" si="217"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AV49">
         <f t="shared" ca="1" si="218"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AW49">
         <f t="shared" ca="1" si="219"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX49">
         <f t="shared" ca="1" si="220"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY49">
         <f t="shared" ca="1" si="221"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ49">
         <f t="shared" ca="1" si="222"/>
@@ -12583,11 +12644,11 @@
       </c>
       <c r="BB49">
         <f t="shared" ca="1" si="224"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC49">
         <f t="shared" ca="1" si="225"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BD49">
         <f t="shared" ca="1" si="226"/>
@@ -12595,7 +12656,7 @@
       </c>
       <c r="BE49">
         <f t="shared" ca="1" si="227"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BF49">
         <f t="shared" ca="1" si="228"/>
@@ -12607,11 +12668,11 @@
       </c>
       <c r="BH49">
         <f t="shared" ca="1" si="230"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI49">
         <f t="shared" ca="1" si="231"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BJ49">
         <f t="shared" ca="1" si="232"/>
@@ -12619,15 +12680,15 @@
       </c>
       <c r="BK49">
         <f t="shared" ca="1" si="233"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BL49">
         <f t="shared" ca="1" si="234"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM49">
         <f t="shared" ca="1" si="235"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:65" x14ac:dyDescent="0.25">
@@ -12656,7 +12717,7 @@
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="200"/>
@@ -12664,11 +12725,11 @@
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="200"/>
@@ -12688,7 +12749,7 @@
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P50">
         <f t="shared" ca="1" si="200"/>
@@ -12696,7 +12757,7 @@
       </c>
       <c r="Q50">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R50">
         <f t="shared" ca="1" si="200"/>
@@ -12704,19 +12765,19 @@
       </c>
       <c r="S50">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="T50">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U50">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V50">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="W50">
         <f t="shared" ca="1" si="201"/>
@@ -12740,7 +12801,7 @@
       </c>
       <c r="AB50">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AC50">
         <f t="shared" ca="1" si="201"/>
@@ -12748,7 +12809,7 @@
       </c>
       <c r="AD50">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE50">
         <f t="shared" ca="1" si="201"/>
@@ -12760,7 +12821,7 @@
       </c>
       <c r="AG50">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AH50">
         <f t="shared" ca="1" si="204"/>
@@ -12784,7 +12845,7 @@
       </c>
       <c r="AM50">
         <f t="shared" ca="1" si="209"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AN50">
         <f t="shared" ca="1" si="210"/>
@@ -12792,11 +12853,11 @@
       </c>
       <c r="AO50">
         <f t="shared" ca="1" si="211"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP50">
         <f t="shared" ca="1" si="212"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ50">
         <f t="shared" ca="1" si="213"/>
@@ -12816,7 +12877,7 @@
       </c>
       <c r="AU50">
         <f t="shared" ca="1" si="217"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV50">
         <f t="shared" ca="1" si="218"/>
@@ -12824,7 +12885,7 @@
       </c>
       <c r="AW50">
         <f t="shared" ca="1" si="219"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AX50">
         <f t="shared" ca="1" si="220"/>
@@ -12832,19 +12893,19 @@
       </c>
       <c r="AY50">
         <f t="shared" ca="1" si="221"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AZ50">
         <f t="shared" ca="1" si="222"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BA50">
         <f t="shared" ca="1" si="223"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB50">
         <f t="shared" ca="1" si="224"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BC50">
         <f t="shared" ca="1" si="225"/>
@@ -12868,7 +12929,7 @@
       </c>
       <c r="BH50">
         <f t="shared" ca="1" si="230"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BI50">
         <f t="shared" ca="1" si="231"/>
@@ -12876,7 +12937,7 @@
       </c>
       <c r="BJ50">
         <f t="shared" ca="1" si="232"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK50">
         <f t="shared" ca="1" si="233"/>
@@ -12888,7 +12949,7 @@
       </c>
       <c r="BM50">
         <f t="shared" ca="1" si="235"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:65" x14ac:dyDescent="0.25">
@@ -12901,15 +12962,15 @@
       </c>
       <c r="C51">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D51">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="F51">
         <f t="shared" ca="1" si="200"/>
@@ -12921,7 +12982,7 @@
       </c>
       <c r="H51">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I51">
         <f t="shared" ca="1" si="200"/>
@@ -12933,7 +12994,7 @@
       </c>
       <c r="K51">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L51">
         <f t="shared" ca="1" si="200"/>
@@ -12941,11 +13002,11 @@
       </c>
       <c r="M51">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N51">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="200"/>
@@ -12957,11 +13018,11 @@
       </c>
       <c r="Q51">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="S51">
         <f t="shared" ca="1" si="201"/>
@@ -12969,11 +13030,11 @@
       </c>
       <c r="T51">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U51">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V51">
         <f t="shared" ca="1" si="201"/>
@@ -12985,19 +13046,19 @@
       </c>
       <c r="X51">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Y51">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z51">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA51">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AB51">
         <f t="shared" ca="1" si="201"/>
@@ -13017,11 +13078,11 @@
       </c>
       <c r="AF51">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG51">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH51">
         <f t="shared" ca="1" si="204"/>
@@ -13029,15 +13090,15 @@
       </c>
       <c r="AI51">
         <f t="shared" ca="1" si="205"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ51">
         <f t="shared" ca="1" si="206"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AK51">
         <f t="shared" ca="1" si="207"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AL51">
         <f t="shared" ca="1" si="208"/>
@@ -13049,7 +13110,7 @@
       </c>
       <c r="AN51">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO51">
         <f t="shared" ca="1" si="211"/>
@@ -13061,7 +13122,7 @@
       </c>
       <c r="AQ51">
         <f t="shared" ca="1" si="213"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR51">
         <f t="shared" ca="1" si="214"/>
@@ -13069,11 +13130,11 @@
       </c>
       <c r="AS51">
         <f t="shared" ca="1" si="215"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AT51">
         <f t="shared" ca="1" si="216"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU51">
         <f t="shared" ca="1" si="217"/>
@@ -13085,11 +13146,11 @@
       </c>
       <c r="AW51">
         <f t="shared" ca="1" si="219"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AX51">
         <f t="shared" ca="1" si="220"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AY51">
         <f t="shared" ca="1" si="221"/>
@@ -13097,11 +13158,11 @@
       </c>
       <c r="AZ51">
         <f t="shared" ca="1" si="222"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BA51">
         <f t="shared" ca="1" si="223"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB51">
         <f t="shared" ca="1" si="224"/>
@@ -13113,19 +13174,19 @@
       </c>
       <c r="BD51">
         <f t="shared" ca="1" si="226"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BE51">
         <f t="shared" ca="1" si="227"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF51">
         <f t="shared" ca="1" si="228"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG51">
         <f t="shared" ca="1" si="229"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BH51">
         <f t="shared" ca="1" si="230"/>
@@ -13145,11 +13206,11 @@
       </c>
       <c r="BL51">
         <f t="shared" ca="1" si="234"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM51">
         <f t="shared" ca="1" si="235"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:65" x14ac:dyDescent="0.25">
@@ -13158,7 +13219,7 @@
       </c>
       <c r="B52">
         <f t="shared" ca="1" si="203"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C52">
         <f t="shared" ca="1" si="200"/>
@@ -13170,7 +13231,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F52">
         <f t="shared" ca="1" si="200"/>
@@ -13182,7 +13243,7 @@
       </c>
       <c r="H52">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="I52">
         <f t="shared" ca="1" si="200"/>
@@ -13190,15 +13251,15 @@
       </c>
       <c r="J52">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="K52">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L52">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="M52">
         <f t="shared" ca="1" si="200"/>
@@ -13206,11 +13267,11 @@
       </c>
       <c r="N52">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P52">
         <f t="shared" ca="1" si="200"/>
@@ -13222,7 +13283,7 @@
       </c>
       <c r="R52">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S52">
         <f t="shared" ca="1" si="201"/>
@@ -13234,7 +13295,7 @@
       </c>
       <c r="U52">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="V52">
         <f t="shared" ca="1" si="201"/>
@@ -13242,7 +13303,7 @@
       </c>
       <c r="W52">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X52">
         <f t="shared" ca="1" si="201"/>
@@ -13250,7 +13311,7 @@
       </c>
       <c r="Y52">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z52">
         <f t="shared" ca="1" si="201"/>
@@ -13270,7 +13331,7 @@
       </c>
       <c r="AD52">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE52">
         <f t="shared" ca="1" si="201"/>
@@ -13286,7 +13347,7 @@
       </c>
       <c r="AH52">
         <f t="shared" ca="1" si="204"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI52">
         <f t="shared" ca="1" si="205"/>
@@ -13298,7 +13359,7 @@
       </c>
       <c r="AK52">
         <f t="shared" ca="1" si="207"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AL52">
         <f t="shared" ca="1" si="208"/>
@@ -13310,7 +13371,7 @@
       </c>
       <c r="AN52">
         <f t="shared" ca="1" si="210"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AO52">
         <f t="shared" ca="1" si="211"/>
@@ -13318,15 +13379,15 @@
       </c>
       <c r="AP52">
         <f t="shared" ca="1" si="212"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AQ52">
         <f t="shared" ca="1" si="213"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR52">
         <f t="shared" ca="1" si="214"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AS52">
         <f t="shared" ca="1" si="215"/>
@@ -13334,11 +13395,11 @@
       </c>
       <c r="AT52">
         <f t="shared" ca="1" si="216"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU52">
         <f t="shared" ca="1" si="217"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AV52">
         <f t="shared" ca="1" si="218"/>
@@ -13350,7 +13411,7 @@
       </c>
       <c r="AX52">
         <f t="shared" ca="1" si="220"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY52">
         <f t="shared" ca="1" si="221"/>
@@ -13362,7 +13423,7 @@
       </c>
       <c r="BA52">
         <f t="shared" ca="1" si="223"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BB52">
         <f t="shared" ca="1" si="224"/>
@@ -13370,7 +13431,7 @@
       </c>
       <c r="BC52">
         <f t="shared" ca="1" si="225"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD52">
         <f t="shared" ca="1" si="226"/>
@@ -13378,7 +13439,7 @@
       </c>
       <c r="BE52">
         <f t="shared" ca="1" si="227"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF52">
         <f t="shared" ca="1" si="228"/>
@@ -13398,7 +13459,7 @@
       </c>
       <c r="BJ52">
         <f t="shared" ca="1" si="232"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BK52">
         <f t="shared" ca="1" si="233"/>
@@ -13423,7 +13484,7 @@
       </c>
       <c r="C53">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D53">
         <f t="shared" ca="1" si="200"/>
@@ -13439,7 +13500,7 @@
       </c>
       <c r="G53">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H53">
         <f t="shared" ca="1" si="200"/>
@@ -13447,19 +13508,19 @@
       </c>
       <c r="I53">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="J53">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K53">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L53">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M53">
         <f t="shared" ca="1" si="200"/>
@@ -13467,7 +13528,7 @@
       </c>
       <c r="N53">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="200"/>
@@ -13475,7 +13536,7 @@
       </c>
       <c r="P53">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Q53">
         <f t="shared" ca="1" si="200"/>
@@ -13483,15 +13544,15 @@
       </c>
       <c r="R53">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="S53">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T53">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="U53">
         <f t="shared" ca="1" si="201"/>
@@ -13515,7 +13576,7 @@
       </c>
       <c r="Z53">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA53">
         <f t="shared" ca="1" si="201"/>
@@ -13523,7 +13584,7 @@
       </c>
       <c r="AB53">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC53">
         <f t="shared" ca="1" si="201"/>
@@ -13531,19 +13592,19 @@
       </c>
       <c r="AD53">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AE53">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF53">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AG53">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AH53">
         <f t="shared" ref="AH53:AH54" ca="1" si="236">B53</f>
@@ -13551,7 +13612,7 @@
       </c>
       <c r="AI53">
         <f t="shared" ref="AI53:AI54" ca="1" si="237">C53</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AJ53">
         <f t="shared" ref="AJ53:AJ54" ca="1" si="238">D53</f>
@@ -13567,7 +13628,7 @@
       </c>
       <c r="AM53">
         <f t="shared" ref="AM53:AM54" ca="1" si="241">G53</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AN53">
         <f t="shared" ref="AN53:AN54" ca="1" si="242">H53</f>
@@ -13575,19 +13636,19 @@
       </c>
       <c r="AO53">
         <f t="shared" ref="AO53:AO54" ca="1" si="243">I53</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AP53">
         <f t="shared" ref="AP53:AP54" ca="1" si="244">J53</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AQ53">
         <f t="shared" ref="AQ53:AQ54" ca="1" si="245">K53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR53">
         <f t="shared" ref="AR53:AR54" ca="1" si="246">L53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS53">
         <f t="shared" ref="AS53:AS54" ca="1" si="247">M53</f>
@@ -13595,7 +13656,7 @@
       </c>
       <c r="AT53">
         <f t="shared" ref="AT53:AT54" ca="1" si="248">N53</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AU53">
         <f t="shared" ref="AU53:AU54" ca="1" si="249">O53</f>
@@ -13603,7 +13664,7 @@
       </c>
       <c r="AV53">
         <f t="shared" ref="AV53:AV54" ca="1" si="250">P53</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AW53">
         <f t="shared" ref="AW53:AW54" ca="1" si="251">Q53</f>
@@ -13611,15 +13672,15 @@
       </c>
       <c r="AX53">
         <f t="shared" ref="AX53:AX54" ca="1" si="252">R53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AY53">
         <f t="shared" ref="AY53:AY54" ca="1" si="253">S53</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ53">
         <f t="shared" ref="AZ53:AZ54" ca="1" si="254">T53</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BA53">
         <f t="shared" ref="BA53:BA54" ca="1" si="255">U53</f>
@@ -13643,7 +13704,7 @@
       </c>
       <c r="BF53">
         <f t="shared" ref="BF53:BF54" ca="1" si="260">Z53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BG53">
         <f t="shared" ref="BG53:BG54" ca="1" si="261">AA53</f>
@@ -13651,7 +13712,7 @@
       </c>
       <c r="BH53">
         <f t="shared" ref="BH53:BH54" ca="1" si="262">AB53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BI53">
         <f t="shared" ref="BI53:BI54" ca="1" si="263">AC53</f>
@@ -13659,19 +13720,19 @@
       </c>
       <c r="BJ53">
         <f t="shared" ref="BJ53:BJ54" ca="1" si="264">AD53</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BK53">
         <f t="shared" ref="BK53:BK54" ca="1" si="265">AE53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL53">
         <f t="shared" ref="BL53:BL54" ca="1" si="266">AF53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BM53">
         <f t="shared" ref="BM53:BM54" ca="1" si="267">AG53</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:65" x14ac:dyDescent="0.25">
@@ -13680,15 +13741,15 @@
       </c>
       <c r="B54">
         <f t="shared" ca="1" si="203"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="C54">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="200"/>
@@ -13696,7 +13757,7 @@
       </c>
       <c r="F54">
         <f t="shared" ca="1" si="200"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="G54">
         <f t="shared" ca="1" si="200"/>
@@ -13708,7 +13769,7 @@
       </c>
       <c r="I54">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="J54">
         <f t="shared" ca="1" si="200"/>
@@ -13716,11 +13777,11 @@
       </c>
       <c r="K54">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L54">
         <f t="shared" ca="1" si="200"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="M54">
         <f t="shared" ca="1" si="200"/>
@@ -13748,11 +13809,11 @@
       </c>
       <c r="S54">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="T54">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="U54">
         <f t="shared" ca="1" si="201"/>
@@ -13764,7 +13825,7 @@
       </c>
       <c r="W54">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="X54">
         <f t="shared" ca="1" si="201"/>
@@ -13772,11 +13833,11 @@
       </c>
       <c r="Y54">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="Z54">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AA54">
         <f t="shared" ca="1" si="201"/>
@@ -13788,19 +13849,19 @@
       </c>
       <c r="AC54">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AD54">
         <f t="shared" ca="1" si="201"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AE54">
         <f ca="1">IF(RANDBETWEEN(0,1)=0,0,1.1)</f>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AF54">
         <f t="shared" ca="1" si="201"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AG54">
         <f t="shared" ca="1" si="201"/>
@@ -13808,15 +13869,15 @@
       </c>
       <c r="AH54">
         <f t="shared" ca="1" si="236"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AI54">
         <f t="shared" ca="1" si="237"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AJ54">
         <f t="shared" ca="1" si="238"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AK54">
         <f t="shared" ca="1" si="239"/>
@@ -13824,7 +13885,7 @@
       </c>
       <c r="AL54">
         <f t="shared" ca="1" si="240"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AM54">
         <f t="shared" ca="1" si="241"/>
@@ -13836,7 +13897,7 @@
       </c>
       <c r="AO54">
         <f t="shared" ca="1" si="243"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AP54">
         <f t="shared" ca="1" si="244"/>
@@ -13844,11 +13905,11 @@
       </c>
       <c r="AQ54">
         <f t="shared" ca="1" si="245"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AR54">
         <f t="shared" ca="1" si="246"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="AS54">
         <f t="shared" ca="1" si="247"/>
@@ -13876,11 +13937,11 @@
       </c>
       <c r="AY54">
         <f t="shared" ca="1" si="253"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="AZ54">
         <f t="shared" ca="1" si="254"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BA54">
         <f t="shared" ca="1" si="255"/>
@@ -13892,7 +13953,7 @@
       </c>
       <c r="BC54">
         <f t="shared" ca="1" si="257"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BD54">
         <f t="shared" ca="1" si="258"/>
@@ -13900,11 +13961,11 @@
       </c>
       <c r="BE54">
         <f t="shared" ca="1" si="259"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BF54">
         <f t="shared" ca="1" si="260"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BG54">
         <f t="shared" ca="1" si="261"/>
@@ -13916,19 +13977,19 @@
       </c>
       <c r="BI54">
         <f t="shared" ca="1" si="263"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BJ54">
         <f t="shared" ca="1" si="264"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BK54">
         <f t="shared" ca="1" si="265"/>
-        <v>1.1000000000000001</v>
+        <v>0</v>
       </c>
       <c r="BL54">
         <f t="shared" ca="1" si="266"/>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="BM54">
         <f t="shared" ca="1" si="267"/>
@@ -14860,7 +14921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CW48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Y38" sqref="Y38"/>
     </sheetView>
   </sheetViews>
@@ -31761,10 +31822,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:CV130"/>
+  <dimension ref="B1:CV132"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="U139" sqref="U139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31777,7 +31838,7 @@
     <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="14" bestFit="1" customWidth="1"/>
@@ -46798,21 +46859,21 @@
         <v>0</v>
       </c>
       <c r="X103" s="2"/>
-      <c r="Y103" s="4">
-        <f>AVERAGE(BO2:CD2)</f>
-        <v>6.1746666666666675E-10</v>
-      </c>
-      <c r="Z103" s="4">
-        <f>MAX(BO2:CD2)</f>
-        <v>6.4199999999999995E-10</v>
-      </c>
-      <c r="AA103" s="4">
-        <f>AVERAGE(CE2:CT2)</f>
-        <v>3.4158888888888884E-10</v>
-      </c>
-      <c r="AB103" s="4">
-        <f>MAX(CE2:CT2)</f>
-        <v>3.9369999999999999E-10</v>
+      <c r="Y103" s="6">
+        <f>AVERAGE(BO2:CD2)*10^9</f>
+        <v>0.61746666666666672</v>
+      </c>
+      <c r="Z103" s="6">
+        <f>MAX(BO2:CD2)*10^9</f>
+        <v>0.6419999999999999</v>
+      </c>
+      <c r="AA103" s="6">
+        <f>AVERAGE(CE2:CT2)*10^9</f>
+        <v>0.34158888888888883</v>
+      </c>
+      <c r="AB103" s="6">
+        <f>MAX(CE2:CT2)*10^9</f>
+        <v>0.39369999999999999</v>
       </c>
     </row>
     <row r="104" spans="2:28" x14ac:dyDescent="0.25">
@@ -46862,21 +46923,21 @@
         <v>0</v>
       </c>
       <c r="X104" s="2"/>
-      <c r="Y104" s="4">
-        <f t="shared" ref="Y104:Y127" si="27">AVERAGE(BO3:CD3)</f>
-        <v>6.0218571428571424E-10</v>
-      </c>
-      <c r="Z104" s="4">
-        <f t="shared" ref="Z104:Z127" si="28">MAX(BO3:CD3)</f>
-        <v>6.2279999999999996E-10</v>
-      </c>
-      <c r="AA104" s="4">
-        <f t="shared" ref="AA104:AA127" si="29">AVERAGE(CE3:CT3)</f>
-        <v>2.8948571428571428E-10</v>
-      </c>
-      <c r="AB104" s="4">
-        <f t="shared" ref="AB104:AB127" si="30">MAX(CE3:CT3)</f>
-        <v>3.2339999999999999E-10</v>
+      <c r="Y104" s="6">
+        <f t="shared" ref="Y104:Y127" si="27">AVERAGE(BO3:CD3)*10^9</f>
+        <v>0.60218571428571421</v>
+      </c>
+      <c r="Z104" s="6">
+        <f t="shared" ref="Z104:Z127" si="28">MAX(BO3:CD3)*10^9</f>
+        <v>0.62279999999999991</v>
+      </c>
+      <c r="AA104" s="6">
+        <f t="shared" ref="AA104:AA127" si="29">AVERAGE(CE3:CT3)*10^9</f>
+        <v>0.28948571428571429</v>
+      </c>
+      <c r="AB104" s="6">
+        <f t="shared" ref="AB104:AB127" si="30">MAX(CE3:CT3)*10^9</f>
+        <v>0.32339999999999997</v>
       </c>
     </row>
     <row r="105" spans="2:28" x14ac:dyDescent="0.25">
@@ -46926,21 +46987,21 @@
         <v>0</v>
       </c>
       <c r="X105" s="2"/>
-      <c r="Y105" s="4">
+      <c r="Y105" s="6">
         <f t="shared" si="27"/>
-        <v>6.1214444444444437E-10</v>
-      </c>
-      <c r="Z105" s="4">
+        <v>0.61214444444444438</v>
+      </c>
+      <c r="Z105" s="6">
         <f t="shared" si="28"/>
-        <v>6.2049999999999998E-10</v>
-      </c>
-      <c r="AA105" s="4">
+        <v>0.62049999999999994</v>
+      </c>
+      <c r="AA105" s="6">
         <f t="shared" si="29"/>
-        <v>3.3494444444444439E-10</v>
-      </c>
-      <c r="AB105" s="4">
+        <v>0.33494444444444438</v>
+      </c>
+      <c r="AB105" s="6">
         <f t="shared" si="30"/>
-        <v>3.7860000000000002E-10</v>
+        <v>0.37859999999999999</v>
       </c>
     </row>
     <row r="106" spans="2:28" x14ac:dyDescent="0.25">
@@ -46990,21 +47051,21 @@
         <v>0</v>
       </c>
       <c r="X106" s="2"/>
-      <c r="Y106" s="4">
+      <c r="Y106" s="6">
         <f t="shared" si="27"/>
-        <v>6.6693999999999997E-10</v>
-      </c>
-      <c r="Z106" s="4">
+        <v>0.66693999999999998</v>
+      </c>
+      <c r="Z106" s="6">
         <f t="shared" si="28"/>
-        <v>8.8269999999999996E-10</v>
-      </c>
-      <c r="AA106" s="4">
+        <v>0.88269999999999993</v>
+      </c>
+      <c r="AA106" s="6">
         <f t="shared" si="29"/>
-        <v>3.4446000000000002E-10</v>
-      </c>
-      <c r="AB106" s="4">
+        <v>0.34446000000000004</v>
+      </c>
+      <c r="AB106" s="6">
         <f t="shared" si="30"/>
-        <v>3.7790000000000001E-10</v>
+        <v>0.37790000000000001</v>
       </c>
     </row>
     <row r="107" spans="2:28" x14ac:dyDescent="0.25">
@@ -47054,21 +47115,21 @@
         <v>0</v>
       </c>
       <c r="X107" s="2"/>
-      <c r="Y107" s="4">
+      <c r="Y107" s="6">
         <f t="shared" si="27"/>
-        <v>6.6927500000000005E-10</v>
-      </c>
-      <c r="Z107" s="4">
+        <v>0.66927500000000006</v>
+      </c>
+      <c r="Z107" s="6">
         <f t="shared" si="28"/>
-        <v>8.4350000000000003E-10</v>
-      </c>
-      <c r="AA107" s="4">
+        <v>0.84350000000000003</v>
+      </c>
+      <c r="AA107" s="6">
         <f t="shared" si="29"/>
-        <v>3.0346249999999997E-10</v>
-      </c>
-      <c r="AB107" s="4">
+        <v>0.30346249999999997</v>
+      </c>
+      <c r="AB107" s="6">
         <f t="shared" si="30"/>
-        <v>3.7429999999999999E-10</v>
+        <v>0.37429999999999997</v>
       </c>
     </row>
     <row r="108" spans="2:28" x14ac:dyDescent="0.25">
@@ -47118,21 +47179,21 @@
         <v>0</v>
       </c>
       <c r="X108" s="2"/>
-      <c r="Y108" s="4">
+      <c r="Y108" s="6">
         <f t="shared" si="27"/>
-        <v>6.0670000000000009E-10</v>
-      </c>
-      <c r="Z108" s="4">
+        <v>0.60670000000000013</v>
+      </c>
+      <c r="Z108" s="6">
         <f t="shared" si="28"/>
-        <v>6.1500000000000005E-10</v>
-      </c>
-      <c r="AA108" s="4">
+        <v>0.6150000000000001</v>
+      </c>
+      <c r="AA108" s="6">
         <f t="shared" si="29"/>
-        <v>3.4647999999999998E-10</v>
-      </c>
-      <c r="AB108" s="4">
+        <v>0.34647999999999995</v>
+      </c>
+      <c r="AB108" s="6">
         <f t="shared" si="30"/>
-        <v>3.8929999999999999E-10</v>
+        <v>0.38929999999999998</v>
       </c>
     </row>
     <row r="109" spans="2:28" x14ac:dyDescent="0.25">
@@ -47182,21 +47243,21 @@
         <v>0</v>
       </c>
       <c r="X109" s="2"/>
-      <c r="Y109" s="4">
+      <c r="Y109" s="6">
         <f t="shared" si="27"/>
-        <v>6.0915714285714281E-10</v>
-      </c>
-      <c r="Z109" s="4">
+        <v>0.60915714285714284</v>
+      </c>
+      <c r="Z109" s="6">
         <f t="shared" si="28"/>
-        <v>6.3599999999999998E-10</v>
-      </c>
-      <c r="AA109" s="4">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="AA109" s="6">
         <f t="shared" si="29"/>
-        <v>3.4042857142857144E-10</v>
-      </c>
-      <c r="AB109" s="4">
+        <v>0.34042857142857147</v>
+      </c>
+      <c r="AB109" s="6">
         <f t="shared" si="30"/>
-        <v>3.8979999999999999E-10</v>
+        <v>0.38979999999999998</v>
       </c>
     </row>
     <row r="110" spans="2:28" x14ac:dyDescent="0.25">
@@ -47246,21 +47307,21 @@
         <v>0</v>
       </c>
       <c r="X110" s="2"/>
-      <c r="Y110" s="4">
+      <c r="Y110" s="6">
         <f t="shared" si="27"/>
-        <v>6.0433333333333331E-10</v>
-      </c>
-      <c r="Z110" s="4">
+        <v>0.60433333333333328</v>
+      </c>
+      <c r="Z110" s="6">
         <f t="shared" si="28"/>
-        <v>6.189E-10</v>
-      </c>
-      <c r="AA110" s="4">
+        <v>0.61890000000000001</v>
+      </c>
+      <c r="AA110" s="6">
         <f t="shared" si="29"/>
-        <v>3.1326666666666665E-10</v>
-      </c>
-      <c r="AB110" s="4">
+        <v>0.31326666666666664</v>
+      </c>
+      <c r="AB110" s="6">
         <f t="shared" si="30"/>
-        <v>3.7409999999999998E-10</v>
+        <v>0.37409999999999999</v>
       </c>
     </row>
     <row r="111" spans="2:28" x14ac:dyDescent="0.25">
@@ -47310,21 +47371,21 @@
         <v>0</v>
       </c>
       <c r="X111" s="2"/>
-      <c r="Y111" s="4">
+      <c r="Y111" s="6">
         <f t="shared" si="27"/>
-        <v>6.4218571428571421E-10</v>
-      </c>
-      <c r="Z111" s="4">
+        <v>0.64218571428571425</v>
+      </c>
+      <c r="Z111" s="6">
         <f t="shared" si="28"/>
-        <v>7.1040000000000005E-10</v>
-      </c>
-      <c r="AA111" s="4">
+        <v>0.71040000000000003</v>
+      </c>
+      <c r="AA111" s="6">
         <f t="shared" si="29"/>
-        <v>2.887142857142857E-10</v>
-      </c>
-      <c r="AB111" s="4">
+        <v>0.2887142857142857</v>
+      </c>
+      <c r="AB111" s="6">
         <f t="shared" si="30"/>
-        <v>3.268E-10</v>
+        <v>0.32679999999999998</v>
       </c>
     </row>
     <row r="112" spans="2:28" x14ac:dyDescent="0.25">
@@ -47374,21 +47435,21 @@
         <v>0</v>
       </c>
       <c r="X112" s="2"/>
-      <c r="Y112" s="4">
+      <c r="Y112" s="6">
         <f t="shared" si="27"/>
-        <v>6.2163636363636358E-10</v>
-      </c>
-      <c r="Z112" s="4">
+        <v>0.62163636363636354</v>
+      </c>
+      <c r="Z112" s="6">
         <f t="shared" si="28"/>
-        <v>7.0560000000000002E-10</v>
-      </c>
-      <c r="AA112" s="4">
+        <v>0.7056</v>
+      </c>
+      <c r="AA112" s="6">
         <f t="shared" si="29"/>
-        <v>3.5486363636363636E-10</v>
-      </c>
-      <c r="AB112" s="4">
+        <v>0.35486363636363638</v>
+      </c>
+      <c r="AB112" s="6">
         <f t="shared" si="30"/>
-        <v>3.912E-10</v>
+        <v>0.39119999999999999</v>
       </c>
     </row>
     <row r="113" spans="2:28" x14ac:dyDescent="0.25">
@@ -47438,21 +47499,21 @@
         <v>0</v>
       </c>
       <c r="X113" s="2"/>
-      <c r="Y113" s="4">
+      <c r="Y113" s="6">
         <f t="shared" si="27"/>
-        <v>6.2486249999999992E-10</v>
-      </c>
-      <c r="Z113" s="4">
+        <v>0.62486249999999988</v>
+      </c>
+      <c r="Z113" s="6">
         <f t="shared" si="28"/>
-        <v>7.2690000000000004E-10</v>
-      </c>
-      <c r="AA113" s="4">
+        <v>0.72689999999999999</v>
+      </c>
+      <c r="AA113" s="6">
         <f t="shared" si="29"/>
-        <v>3.5217499999999998E-10</v>
-      </c>
-      <c r="AB113" s="4">
+        <v>0.35217499999999996</v>
+      </c>
+      <c r="AB113" s="6">
         <f t="shared" si="30"/>
-        <v>3.9619999999999999E-10</v>
+        <v>0.3962</v>
       </c>
     </row>
     <row r="114" spans="2:28" x14ac:dyDescent="0.25">
@@ -47502,21 +47563,21 @@
         <v>0</v>
       </c>
       <c r="X114" s="2"/>
-      <c r="Y114" s="4">
+      <c r="Y114" s="6">
         <f t="shared" si="27"/>
-        <v>6.2396250000000006E-10</v>
-      </c>
-      <c r="Z114" s="4">
+        <v>0.62396250000000009</v>
+      </c>
+      <c r="Z114" s="6">
         <f t="shared" si="28"/>
-        <v>6.4150000000000001E-10</v>
-      </c>
-      <c r="AA114" s="4">
+        <v>0.64149999999999996</v>
+      </c>
+      <c r="AA114" s="6">
         <f t="shared" si="29"/>
-        <v>3.391125E-10</v>
-      </c>
-      <c r="AB114" s="4">
+        <v>0.33911249999999998</v>
+      </c>
+      <c r="AB114" s="6">
         <f t="shared" si="30"/>
-        <v>3.922E-10</v>
+        <v>0.39219999999999999</v>
       </c>
     </row>
     <row r="115" spans="2:28" x14ac:dyDescent="0.25">
@@ -47566,21 +47627,21 @@
         <v>0</v>
       </c>
       <c r="X115" s="2"/>
-      <c r="Y115" s="4">
+      <c r="Y115" s="6">
         <f t="shared" si="27"/>
-        <v>6.3238888888888876E-10</v>
-      </c>
-      <c r="Z115" s="4">
+        <v>0.63238888888888878</v>
+      </c>
+      <c r="Z115" s="6">
         <f t="shared" si="28"/>
-        <v>8.5420000000000001E-10</v>
-      </c>
-      <c r="AA115" s="4">
+        <v>0.85419999999999996</v>
+      </c>
+      <c r="AA115" s="6">
         <f t="shared" si="29"/>
-        <v>3.2061111111111111E-10</v>
-      </c>
-      <c r="AB115" s="4">
+        <v>0.32061111111111112</v>
+      </c>
+      <c r="AB115" s="6">
         <f t="shared" si="30"/>
-        <v>3.8500000000000001E-10</v>
+        <v>0.38500000000000001</v>
       </c>
     </row>
     <row r="116" spans="2:28" x14ac:dyDescent="0.25">
@@ -47630,21 +47691,21 @@
         <v>0</v>
       </c>
       <c r="X116" s="2"/>
-      <c r="Y116" s="4">
+      <c r="Y116" s="6">
         <f t="shared" si="27"/>
-        <v>6.6007142857142852E-10</v>
-      </c>
-      <c r="Z116" s="4">
+        <v>0.66007142857142853</v>
+      </c>
+      <c r="Z116" s="6">
         <f t="shared" si="28"/>
-        <v>7.2599999999999997E-10</v>
-      </c>
-      <c r="AA116" s="4">
+        <v>0.72599999999999998</v>
+      </c>
+      <c r="AA116" s="6">
         <f t="shared" si="29"/>
-        <v>3.1024285714285719E-10</v>
-      </c>
-      <c r="AB116" s="4">
+        <v>0.31024285714285721</v>
+      </c>
+      <c r="AB116" s="6">
         <f t="shared" si="30"/>
-        <v>3.7059999999999999E-10</v>
+        <v>0.37059999999999998</v>
       </c>
     </row>
     <row r="117" spans="2:28" x14ac:dyDescent="0.25">
@@ -47694,21 +47755,21 @@
         <v>0</v>
       </c>
       <c r="X117" s="2"/>
-      <c r="Y117" s="4">
+      <c r="Y117" s="6">
         <f t="shared" si="27"/>
-        <v>6.8538333333333326E-10</v>
-      </c>
-      <c r="Z117" s="4">
+        <v>0.68538333333333323</v>
+      </c>
+      <c r="Z117" s="6">
         <f t="shared" si="28"/>
-        <v>7.3309999999999998E-10</v>
-      </c>
-      <c r="AA117" s="4">
+        <v>0.73309999999999997</v>
+      </c>
+      <c r="AA117" s="6">
         <f t="shared" si="29"/>
-        <v>3.5108333333333334E-10</v>
-      </c>
-      <c r="AB117" s="4">
+        <v>0.35108333333333336</v>
+      </c>
+      <c r="AB117" s="6">
         <f t="shared" si="30"/>
-        <v>3.9780000000000001E-10</v>
+        <v>0.39779999999999999</v>
       </c>
     </row>
     <row r="118" spans="2:28" x14ac:dyDescent="0.25">
@@ -47758,21 +47819,21 @@
         <v>0</v>
       </c>
       <c r="X118" s="2"/>
-      <c r="Y118" s="4">
+      <c r="Y118" s="6">
         <f t="shared" si="27"/>
-        <v>6.9315714285714283E-10</v>
-      </c>
-      <c r="Z118" s="4">
+        <v>0.69315714285714281</v>
+      </c>
+      <c r="Z118" s="6">
         <f t="shared" si="28"/>
-        <v>8.7929999999999995E-10</v>
-      </c>
-      <c r="AA118" s="4">
+        <v>0.87929999999999997</v>
+      </c>
+      <c r="AA118" s="6">
         <f t="shared" si="29"/>
-        <v>3.032E-10</v>
-      </c>
-      <c r="AB118" s="4">
+        <v>0.30320000000000003</v>
+      </c>
+      <c r="AB118" s="6">
         <f t="shared" si="30"/>
-        <v>3.7089999999999998E-10</v>
+        <v>0.37090000000000001</v>
       </c>
     </row>
     <row r="119" spans="2:28" x14ac:dyDescent="0.25">
@@ -47822,21 +47883,21 @@
         <v>0</v>
       </c>
       <c r="X119" s="2"/>
-      <c r="Y119" s="4">
+      <c r="Y119" s="6">
         <f t="shared" si="27"/>
-        <v>6.4753333333333333E-10</v>
-      </c>
-      <c r="Z119" s="4">
+        <v>0.64753333333333329</v>
+      </c>
+      <c r="Z119" s="6">
         <f t="shared" si="28"/>
-        <v>8.1799999999999997E-10</v>
-      </c>
-      <c r="AA119" s="4">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="AA119" s="6">
         <f t="shared" si="29"/>
-        <v>3.3448333333333336E-10</v>
-      </c>
-      <c r="AB119" s="4">
+        <v>0.33448333333333335</v>
+      </c>
+      <c r="AB119" s="6">
         <f t="shared" si="30"/>
-        <v>3.8250000000000002E-10</v>
+        <v>0.38250000000000001</v>
       </c>
     </row>
     <row r="120" spans="2:28" x14ac:dyDescent="0.25">
@@ -47886,21 +47947,21 @@
         <v>0</v>
       </c>
       <c r="X120" s="2"/>
-      <c r="Y120" s="4">
+      <c r="Y120" s="6">
         <f t="shared" si="27"/>
-        <v>6.040428571428572E-10</v>
-      </c>
-      <c r="Z120" s="4">
+        <v>0.60404285714285721</v>
+      </c>
+      <c r="Z120" s="6">
         <f t="shared" si="28"/>
-        <v>6.1309999999999998E-10</v>
-      </c>
-      <c r="AA120" s="4">
+        <v>0.61309999999999998</v>
+      </c>
+      <c r="AA120" s="6">
         <f t="shared" si="29"/>
-        <v>3.4492857142857143E-10</v>
-      </c>
-      <c r="AB120" s="4">
+        <v>0.34492857142857142</v>
+      </c>
+      <c r="AB120" s="6">
         <f t="shared" si="30"/>
-        <v>3.9480000000000002E-10</v>
+        <v>0.39480000000000004</v>
       </c>
     </row>
     <row r="121" spans="2:28" x14ac:dyDescent="0.25">
@@ -47950,21 +48011,21 @@
         <v>0</v>
       </c>
       <c r="X121" s="2"/>
-      <c r="Y121" s="4">
+      <c r="Y121" s="6">
         <f t="shared" si="27"/>
-        <v>6.2296666666666678E-10</v>
-      </c>
-      <c r="Z121" s="4">
+        <v>0.62296666666666678</v>
+      </c>
+      <c r="Z121" s="6">
         <f t="shared" si="28"/>
-        <v>6.3720000000000003E-10</v>
-      </c>
-      <c r="AA121" s="4">
+        <v>0.63719999999999999</v>
+      </c>
+      <c r="AA121" s="6">
         <f t="shared" si="29"/>
-        <v>3.6236666666666667E-10</v>
-      </c>
-      <c r="AB121" s="4">
+        <v>0.36236666666666667</v>
+      </c>
+      <c r="AB121" s="6">
         <f t="shared" si="30"/>
-        <v>3.9129999999999998E-10</v>
+        <v>0.39129999999999998</v>
       </c>
     </row>
     <row r="122" spans="2:28" x14ac:dyDescent="0.25">
@@ -48014,21 +48075,21 @@
         <v>0</v>
       </c>
       <c r="X122" s="2"/>
-      <c r="Y122" s="4">
+      <c r="Y122" s="6">
         <f t="shared" si="27"/>
-        <v>6.2211428571428586E-10</v>
-      </c>
-      <c r="Z122" s="4">
+        <v>0.62211428571428584</v>
+      </c>
+      <c r="Z122" s="6">
         <f t="shared" si="28"/>
-        <v>6.3159999999999997E-10</v>
-      </c>
-      <c r="AA122" s="4">
+        <v>0.63159999999999994</v>
+      </c>
+      <c r="AA122" s="6">
         <f t="shared" si="29"/>
-        <v>3.3112857142857138E-10</v>
-      </c>
-      <c r="AB122" s="4">
+        <v>0.33112857142857138</v>
+      </c>
+      <c r="AB122" s="6">
         <f t="shared" si="30"/>
-        <v>3.8940000000000002E-10</v>
+        <v>0.38940000000000002</v>
       </c>
     </row>
     <row r="123" spans="2:28" x14ac:dyDescent="0.25">
@@ -48078,21 +48139,21 @@
         <v>0</v>
       </c>
       <c r="X123" s="2"/>
-      <c r="Y123" s="4">
+      <c r="Y123" s="6">
         <f t="shared" si="27"/>
-        <v>6.6488333333333328E-10</v>
-      </c>
-      <c r="Z123" s="4">
+        <v>0.66488333333333327</v>
+      </c>
+      <c r="Z123" s="6">
         <f t="shared" si="28"/>
-        <v>8.9189999999999999E-10</v>
-      </c>
-      <c r="AA123" s="4">
+        <v>0.89190000000000003</v>
+      </c>
+      <c r="AA123" s="6">
         <f t="shared" si="29"/>
-        <v>3.6656666666666666E-10</v>
-      </c>
-      <c r="AB123" s="4">
+        <v>0.36656666666666665</v>
+      </c>
+      <c r="AB123" s="6">
         <f t="shared" si="30"/>
-        <v>3.8230000000000001E-10</v>
+        <v>0.38230000000000003</v>
       </c>
     </row>
     <row r="124" spans="2:28" x14ac:dyDescent="0.25">
@@ -48142,21 +48203,21 @@
         <v>0</v>
       </c>
       <c r="X124" s="2"/>
-      <c r="Y124" s="4">
+      <c r="Y124" s="6">
         <f t="shared" si="27"/>
-        <v>6.5732857142857151E-10</v>
-      </c>
-      <c r="Z124" s="4">
+        <v>0.65732857142857148</v>
+      </c>
+      <c r="Z124" s="6">
         <f t="shared" si="28"/>
-        <v>9.0780000000000001E-10</v>
-      </c>
-      <c r="AA124" s="4">
+        <v>0.90780000000000005</v>
+      </c>
+      <c r="AA124" s="6">
         <f t="shared" si="29"/>
-        <v>3.5744285714285714E-10</v>
-      </c>
-      <c r="AB124" s="4">
+        <v>0.35744285714285712</v>
+      </c>
+      <c r="AB124" s="6">
         <f t="shared" si="30"/>
-        <v>3.8959999999999998E-10</v>
+        <v>0.3896</v>
       </c>
     </row>
     <row r="125" spans="2:28" x14ac:dyDescent="0.25">
@@ -48206,21 +48267,21 @@
         <v>0</v>
       </c>
       <c r="X125" s="2"/>
-      <c r="Y125" s="4">
+      <c r="Y125" s="6">
         <f t="shared" si="27"/>
-        <v>6.0091250000000002E-10</v>
-      </c>
-      <c r="Z125" s="4">
+        <v>0.60091250000000007</v>
+      </c>
+      <c r="Z125" s="6">
         <f t="shared" si="28"/>
-        <v>6.1439999999999997E-10</v>
-      </c>
-      <c r="AA125" s="4">
+        <v>0.61439999999999995</v>
+      </c>
+      <c r="AA125" s="6">
         <f t="shared" si="29"/>
-        <v>3.1612499999999998E-10</v>
-      </c>
-      <c r="AB125" s="4">
+        <v>0.31612499999999999</v>
+      </c>
+      <c r="AB125" s="6">
         <f t="shared" si="30"/>
-        <v>3.74E-10</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="126" spans="2:28" x14ac:dyDescent="0.25">
@@ -48270,21 +48331,21 @@
         <v>0</v>
       </c>
       <c r="X126" s="2"/>
-      <c r="Y126" s="4">
+      <c r="Y126" s="6">
         <f t="shared" si="27"/>
-        <v>6.1422499999999991E-10</v>
-      </c>
-      <c r="Z126" s="4">
+        <v>0.61422499999999991</v>
+      </c>
+      <c r="Z126" s="6">
         <f t="shared" si="28"/>
-        <v>6.2919999999999996E-10</v>
-      </c>
-      <c r="AA126" s="4">
+        <v>0.62919999999999998</v>
+      </c>
+      <c r="AA126" s="6">
         <f t="shared" si="29"/>
-        <v>3.182E-10</v>
-      </c>
-      <c r="AB126" s="4">
+        <v>0.31819999999999998</v>
+      </c>
+      <c r="AB126" s="6">
         <f t="shared" si="30"/>
-        <v>3.8990000000000002E-10</v>
+        <v>0.38990000000000002</v>
       </c>
     </row>
     <row r="127" spans="2:28" x14ac:dyDescent="0.25">
@@ -48334,21 +48395,21 @@
         <v>0</v>
       </c>
       <c r="X127" s="2"/>
-      <c r="Y127" s="4">
+      <c r="Y127" s="6">
         <f t="shared" si="27"/>
-        <v>6.4669999999999995E-10</v>
-      </c>
-      <c r="Z127" s="4">
+        <v>0.64669999999999994</v>
+      </c>
+      <c r="Z127" s="6">
         <f t="shared" si="28"/>
-        <v>8.8050000000000001E-10</v>
-      </c>
-      <c r="AA127" s="4">
+        <v>0.88050000000000006</v>
+      </c>
+      <c r="AA127" s="6">
         <f t="shared" si="29"/>
-        <v>3.2581428571428576E-10</v>
-      </c>
-      <c r="AB127" s="4">
+        <v>0.32581428571428578</v>
+      </c>
+      <c r="AB127" s="6">
         <f t="shared" si="30"/>
-        <v>3.7790000000000001E-10</v>
+        <v>0.37790000000000001</v>
       </c>
     </row>
     <row r="128" spans="2:28" x14ac:dyDescent="0.25">
@@ -48361,39 +48422,68 @@
       <c r="V128" s="2"/>
       <c r="W128" s="2"/>
       <c r="X128" s="2"/>
-      <c r="Y128" s="3">
-        <f>AVERAGE(Y103:Y127)*10^9</f>
-        <v>0.63410226883116871</v>
-      </c>
-      <c r="Z128" s="3">
-        <f t="shared" ref="Z128:AB128" si="46">AVERAGE(Z103:Z127)*10^9</f>
-        <v>0.72328399999999982</v>
-      </c>
-      <c r="AA128" s="3">
-        <f t="shared" si="46"/>
-        <v>0.33164701847041839</v>
-      </c>
-      <c r="AB128" s="3">
-        <f t="shared" si="46"/>
+      <c r="Y128" s="6">
+        <f>AVERAGE(Y103:Y127)</f>
+        <v>0.63410226883116882</v>
+      </c>
+      <c r="Z128" s="6">
+        <f>AVERAGE(Z103:Z127)</f>
+        <v>0.72328400000000015</v>
+      </c>
+      <c r="AA128" s="6">
+        <f>AVERAGE(AA103:AA127)</f>
+        <v>0.3316470184704185</v>
+      </c>
+      <c r="AB128" s="6">
+        <f>AVERAGE(AB103:AB127)</f>
         <v>0.38014000000000003</v>
       </c>
     </row>
-    <row r="129" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="129" spans="24:28" x14ac:dyDescent="0.25">
       <c r="Y129" s="5"/>
       <c r="Z129" s="5"/>
       <c r="AA129" s="5"/>
       <c r="AB129" s="5"/>
     </row>
-    <row r="130" spans="25:28" x14ac:dyDescent="0.25">
+    <row r="130" spans="24:28" x14ac:dyDescent="0.25">
       <c r="Y130" s="5"/>
-      <c r="Z130" s="5">
-        <f>MAX(Z103:Z127)*10^9</f>
+      <c r="Z130" s="5"/>
+      <c r="AA130" s="5"/>
+      <c r="AB130" s="5"/>
+    </row>
+    <row r="131" spans="24:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Y131" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="Z131" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="AA131" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="AB131" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="132" spans="24:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="X132" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y132" s="8">
+        <f>AVERAGE(Y103:Y128)</f>
+        <v>0.63410226883116882</v>
+      </c>
+      <c r="Z132" s="8">
+        <f>MAX(Z103:Z128)</f>
         <v>0.90780000000000005</v>
       </c>
-      <c r="AA130" s="5"/>
-      <c r="AB130" s="5">
-        <f t="shared" ref="AA130:AB130" si="47">MAX(AB103:AB127)*10^9</f>
-        <v>0.39779999999999999</v>
+      <c r="AA132" s="8">
+        <f>MAX(AA103:AA128)</f>
+        <v>0.36656666666666665</v>
+      </c>
+      <c r="AB132" s="9">
+        <f>AVERAGE(AB103:AB128)</f>
+        <v>0.38014000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -48406,8 +48496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:CW48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z48" sqref="Z48"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
